--- a/Checklists/Mobile_App_Security_Checklist-Korean_1.1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Korean_1.1.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanuminfo/Documents/OWASP/Mobile_App_Security_Checklist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanuminfo/Documents/GitHub/owasp-mstg/Checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F147F68C-B501-BA48-9005-1F57CD52F085}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA11782-F15C-3C48-98D0-42339CE4F3E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="32740" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="32740" windowHeight="20540" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="안티리버싱(Android)" sheetId="4" r:id="rId4"/>
     <sheet name="보안요구사항(iOS)" sheetId="5" r:id="rId5"/>
     <sheet name="안티리버싱(iOS)" sheetId="6" r:id="rId6"/>
-    <sheet name="변경이력(한국어)" sheetId="8" r:id="rId7"/>
-    <sheet name="변경이력(원문)" sheetId="7" r:id="rId8"/>
+    <sheet name="Version history" sheetId="7" r:id="rId7"/>
+    <sheet name="Version history (Korean)" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">'보안요구사항(Android)'!$B$3:$K$72</definedName>
@@ -28,8 +28,7 @@
     <definedName name="MASVS_VERSION">개요!$D$11</definedName>
     <definedName name="MSTG_VERSION">개요!$D$13</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="376">
   <si>
     <t>1.1.4</t>
   </si>
@@ -1026,30 +1025,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>XLS 변경 이력</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>1.1.2</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>전영재 (Youngjae Jeon)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경자</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>모바일 애플리케이션 보안 요구 사항(Android)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1159,10 +1138,6 @@
   </si>
   <si>
     <t>리버스 엔지니어링에 대한 복원력(iOS)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile App Security Checklist 1.1.2 영문 버전을 한국어로 번역</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1510,6 +1485,19 @@
   </si>
   <si>
     <t>이해 방해(Impede Comprehension)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Youngjae Jeon</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>translate ver. 1.1.2 into Korean 
+- translated by Youngjae Jeon reviewed by Jeongwon Cho.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2161,7 +2149,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2258,25 +2246,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2285,48 +2260,6 @@
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2407,9 +2340,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2440,9 +2370,6 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2515,18 +2442,6 @@
     <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2538,12 +2453,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2567,42 +2476,108 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3847,7 +3822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D8"/>
     </sheetView>
   </sheetViews>
@@ -3863,46 +3838,46 @@
   <sheetData>
     <row r="1" spans="2:5" ht="8" customHeight="1"/>
     <row r="2" spans="2:5" ht="15.5" customHeight="1">
-      <c r="B2" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="B2" s="142" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
     </row>
     <row r="8" spans="2:5" hidden="1">
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="139"/>
       <c r="E9" s="23"/>
     </row>
     <row r="10" spans="2:5">
@@ -3913,102 +3888,102 @@
       <c r="D10" s="26"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="143" t="s">
         <v>230</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="143"/>
       <c r="D11" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="140" t="s">
         <v>250</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="140"/>
       <c r="D12" s="33" t="str">
         <f>HYPERLINK(CONCATENATE( "https://github.com/OWASP/owasp-masvs/blob/", MASVS_VERSION, "/Document/"))</f>
         <v>https://github.com/OWASP/owasp-masvs/blob/1.1.4/Document/</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="144" t="s">
         <v>231</v>
       </c>
-      <c r="C13" s="56"/>
+      <c r="C13" s="144"/>
       <c r="D13" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="19">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="140" t="s">
         <v>251</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="140"/>
       <c r="D14" s="35" t="str">
         <f>HYPERLINK(CONCATENATE( "https://github.com/OWASP/owasp-mstg/blob/", MSTG_VERSION, "/Document/"))</f>
         <v>https://github.com/OWASP/owasp-mstg/blob/1.1.3/Document/</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="32" customHeight="1">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="141" t="s">
         <v>229</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="C16" s="58"/>
+      <c r="C16" s="136"/>
       <c r="D16" s="34" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="140" t="s">
         <v>233</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="34"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="58"/>
+      <c r="C18" s="136"/>
       <c r="D18" s="34"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="136" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="58"/>
+      <c r="C19" s="136"/>
       <c r="D19" s="34"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="136" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="58"/>
+      <c r="C20" s="136"/>
       <c r="D20" s="34"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="136" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="58"/>
+      <c r="C21" s="136"/>
       <c r="D21" s="34" t="str">
         <f>"앱 " &amp; D25 &amp; " 내에서 사용 가능한 모든 기능"</f>
         <v>앱 &lt;AppName&gt; 내에서 사용 가능한 모든 기능</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="70.5" customHeight="1">
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="58"/>
+      <c r="C22" s="136"/>
       <c r="D22" s="34" t="str">
         <f>D16&amp;"(와)과 협의 후 "&amp;D25&amp;"에 대한 검증 수준은 Level 1 요구사항만 적용하기로 결정" &amp;
 "
@@ -4022,9 +3997,9 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="139"/>
       <c r="E23" s="23"/>
     </row>
     <row r="24" spans="2:5">
@@ -4044,46 +4019,46 @@
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="136" t="s">
         <v>240</v>
       </c>
-      <c r="C26" s="58"/>
+      <c r="C26" s="136"/>
       <c r="D26" s="34"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="C27" s="58"/>
+      <c r="C27" s="136"/>
       <c r="D27" s="34"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="136" t="s">
         <v>242</v>
       </c>
-      <c r="C28" s="58"/>
+      <c r="C28" s="136"/>
       <c r="D28" s="34"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="136" t="s">
         <v>243</v>
       </c>
-      <c r="C29" s="58"/>
+      <c r="C29" s="136"/>
       <c r="D29" s="34"/>
     </row>
     <row r="30" spans="2:5" ht="52" customHeight="1">
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="137" t="s">
         <v>253</v>
       </c>
-      <c r="C30" s="59"/>
+      <c r="C30" s="137"/>
       <c r="D30" s="34" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="139"/>
       <c r="E31" s="23"/>
     </row>
     <row r="32" spans="2:5">
@@ -4094,87 +4069,113 @@
       <c r="D32" s="30"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="134" t="s">
         <v>245</v>
       </c>
-      <c r="C34" s="61"/>
+      <c r="C34" s="134"/>
       <c r="D34" s="36"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="134" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="61"/>
+      <c r="C35" s="134"/>
       <c r="D35" s="36"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="134" t="s">
         <v>247</v>
       </c>
-      <c r="C36" s="61"/>
+      <c r="C36" s="134"/>
       <c r="D36" s="36"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="134" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="61"/>
+      <c r="C37" s="134"/>
       <c r="D37" s="37"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="134" t="s">
         <v>249</v>
       </c>
-      <c r="C38" s="61"/>
+      <c r="C38" s="134"/>
       <c r="D38" s="36"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="134" t="s">
         <v>245</v>
       </c>
-      <c r="C40" s="61"/>
+      <c r="C40" s="134"/>
       <c r="D40" s="36"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="134" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="61"/>
+      <c r="C41" s="134"/>
       <c r="D41" s="36"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="134" t="s">
         <v>247</v>
       </c>
-      <c r="C42" s="61"/>
+      <c r="C42" s="134"/>
       <c r="D42" s="36"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="134" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="61"/>
+      <c r="C43" s="134"/>
       <c r="D43" s="37"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="134" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="61"/>
+      <c r="C44" s="134"/>
       <c r="D44" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B38:C38"/>
@@ -4182,32 +4183,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4234,145 +4209,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="17">
-      <c r="A1" s="72"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
     </row>
     <row r="2" spans="1:1024" ht="20">
-      <c r="A2" s="72"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="162" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="132" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
     </row>
     <row r="3" spans="1:1024" ht="17">
-      <c r="A3" s="72"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
     </row>
     <row r="4" spans="1:1024" ht="16" customHeight="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
     </row>
     <row r="5" spans="1:1024" s="39" customFormat="1" ht="19" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="150" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="146" t="s">
         <v>256</v>
       </c>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="150" t="s">
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="146" t="s">
         <v>256</v>
       </c>
-      <c r="V5" s="150"/>
-      <c r="W5" s="150"/>
-      <c r="X5" s="81"/>
-      <c r="Y5" s="81"/>
+      <c r="V5" s="146"/>
+      <c r="W5" s="146"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
       <c r="Z5" s="38"/>
       <c r="AA5" s="38"/>
       <c r="AB5" s="38"/>
@@ -5374,152 +5349,152 @@
       <c r="AMJ5" s="38"/>
     </row>
     <row r="6" spans="1:1024" ht="17">
-      <c r="A6" s="72"/>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
     </row>
     <row r="7" spans="1:1024" ht="16" customHeight="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="148"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="152">
+      <c r="A7" s="53"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="147">
         <f>AVERAGE(G42:G49)*5</f>
         <v>3.6123511904761907</v>
       </c>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="152">
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="147">
         <f>AVERAGE(K42:K49)*5</f>
         <v>0</v>
       </c>
-      <c r="V7" s="152"/>
-      <c r="W7" s="152"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
+      <c r="V7" s="147"/>
+      <c r="W7" s="147"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
     </row>
     <row r="8" spans="1:1024" ht="91" customHeight="1">
-      <c r="A8" s="72"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="152"/>
-      <c r="V8" s="152"/>
-      <c r="W8" s="152"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="147"/>
+      <c r="W8" s="147"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
     </row>
     <row r="9" spans="1:1024" ht="16.5" customHeight="1">
-      <c r="A9" s="72"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="72"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="147"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
     </row>
     <row r="10" spans="1:1024" ht="17.25" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="151"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="152"/>
-      <c r="V10" s="152"/>
-      <c r="W10" s="152"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="147"/>
+      <c r="W10" s="147"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
     </row>
     <row r="11" spans="1:1024" ht="16" customHeight="1">
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
     </row>
     <row r="12" spans="1:1024">
       <c r="B12" s="3"/>
@@ -5543,11 +5518,11 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:1024" ht="16" customHeight="1">
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
     </row>
     <row r="16" spans="1:1024">
       <c r="B16" s="3"/>
@@ -5600,376 +5575,376 @@
     </row>
     <row r="34" spans="3:11" ht="15.75" customHeight="1"/>
     <row r="40" spans="3:11" ht="17">
-      <c r="C40" s="72"/>
-      <c r="D40" s="137" t="s">
+      <c r="C40" s="53"/>
+      <c r="D40" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137" t="s">
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="137"/>
-      <c r="J40" s="137"/>
-      <c r="K40" s="137"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="145"/>
+      <c r="K40" s="145"/>
     </row>
     <row r="41" spans="3:11" ht="17">
-      <c r="C41" s="72"/>
-      <c r="D41" s="138" t="s">
+      <c r="C41" s="53"/>
+      <c r="D41" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="138" t="s">
+      <c r="E41" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="138" t="s">
+      <c r="F41" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="138" t="s">
+      <c r="G41" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="138" t="s">
+      <c r="H41" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="I41" s="138" t="s">
+      <c r="I41" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="138" t="s">
+      <c r="J41" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="138" t="s">
+      <c r="K41" s="111" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="3:11" ht="17">
-      <c r="C42" s="139" t="s">
+      <c r="C42" s="112" t="s">
         <v>257</v>
       </c>
-      <c r="D42" s="140">
+      <c r="D42" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G5:G14,'보안요구사항(Android)'!B79)</f>
         <v>3</v>
       </c>
-      <c r="E42" s="140">
+      <c r="E42" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G5:G14,'보안요구사항(Android)'!B80)</f>
         <v>1</v>
       </c>
-      <c r="F42" s="141">
+      <c r="F42" s="114">
         <f>COUNTIFS('보안요구사항(Android)'!G5:G14,'보안요구사항(Android)'!B81)</f>
         <v>6</v>
       </c>
-      <c r="G42" s="142">
+      <c r="G42" s="115">
         <f t="shared" ref="G42:G49" si="0">IF(D42+E42=0, 0, D42/(E42+D42))</f>
         <v>0.75</v>
       </c>
-      <c r="H42" s="140">
+      <c r="H42" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G5:G14,'보안요구사항(Android)'!B79)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="140">
+      <c r="I42" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G5:G14,'보안요구사항(Android)'!B80)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="141">
+      <c r="J42" s="114">
         <f>COUNTIFS('보안요구사항(iOS)'!G5:G14,'보안요구사항(Android)'!B81)</f>
         <v>6</v>
       </c>
-      <c r="K42" s="142">
+      <c r="K42" s="115">
         <f t="shared" ref="K42:K49" si="1">IF(H42+I42=0, 0, H42/(H42+I42))</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="3:11" ht="17">
-      <c r="C43" s="139" t="s">
-        <v>296</v>
-      </c>
-      <c r="D43" s="140">
+      <c r="C43" s="112" t="s">
+        <v>291</v>
+      </c>
+      <c r="D43" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G16:G27,'보안요구사항(Android)'!B79)</f>
         <v>6</v>
       </c>
-      <c r="E43" s="140">
+      <c r="E43" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G16:G27,'보안요구사항(Android)'!B80)</f>
         <v>1</v>
       </c>
-      <c r="F43" s="140">
+      <c r="F43" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G16:G27,'보안요구사항(Android)'!B81)</f>
         <v>5</v>
       </c>
-      <c r="G43" s="142">
+      <c r="G43" s="115">
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="H43" s="140">
+      <c r="H43" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G16:G27,'보안요구사항(Android)'!B79)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="140">
+      <c r="I43" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G16:G27,'보안요구사항(Android)'!B80)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="140">
+      <c r="J43" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G16:G27,'보안요구사항(Android)'!B81)</f>
         <v>5</v>
       </c>
-      <c r="K43" s="142">
+      <c r="K43" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="3:11" ht="17">
-      <c r="C44" s="139" t="s">
+      <c r="C44" s="112" t="s">
         <v>258</v>
       </c>
-      <c r="D44" s="140">
+      <c r="D44" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G29:G34,'보안요구사항(Android)'!B79)</f>
         <v>5</v>
       </c>
-      <c r="E44" s="140">
+      <c r="E44" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G29:G34,'보안요구사항(Android)'!B80)</f>
         <v>1</v>
       </c>
-      <c r="F44" s="140">
+      <c r="F44" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G29:G34,'보안요구사항(Android)'!B81)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="142">
+      <c r="G44" s="115">
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="H44" s="140">
+      <c r="H44" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G29:G34,'보안요구사항(Android)'!B79)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="140">
+      <c r="I44" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G29:G34,'보안요구사항(Android)'!B80)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="140">
+      <c r="J44" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G29:G34,'보안요구사항(Android)'!B81)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="142">
+      <c r="K44" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="3:11" ht="17">
-      <c r="C45" s="139" t="s">
+      <c r="C45" s="112" t="s">
         <v>259</v>
       </c>
-      <c r="D45" s="140">
+      <c r="D45" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G36:G46,'보안요구사항(Android)'!B79)</f>
         <v>5</v>
       </c>
-      <c r="E45" s="140">
+      <c r="E45" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G36:G46,'보안요구사항(Android)'!B80)</f>
         <v>2</v>
       </c>
-      <c r="F45" s="140">
+      <c r="F45" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G36:G46,'보안요구사항(Android)'!B81)</f>
         <v>4</v>
       </c>
-      <c r="G45" s="142">
+      <c r="G45" s="115">
         <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="H45" s="140">
+      <c r="H45" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G36:G46,'보안요구사항(Android)'!B79)</f>
         <v>0</v>
       </c>
-      <c r="I45" s="140">
+      <c r="I45" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G36:G46,'보안요구사항(Android)'!B80)</f>
         <v>0</v>
       </c>
-      <c r="J45" s="140">
+      <c r="J45" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G36:G46,'보안요구사항(Android)'!B81)</f>
         <v>4</v>
       </c>
-      <c r="K45" s="142">
+      <c r="K45" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="3:11" ht="17">
-      <c r="C46" s="139" t="s">
+      <c r="C46" s="112" t="s">
         <v>260</v>
       </c>
-      <c r="D46" s="140">
+      <c r="D46" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G48:G53,'보안요구사항(Android)'!B79)</f>
         <v>2</v>
       </c>
-      <c r="E46" s="140">
+      <c r="E46" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G48:G53,'보안요구사항(Android)'!B80)</f>
         <v>1</v>
       </c>
-      <c r="F46" s="140">
+      <c r="F46" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G48:G53,'보안요구사항(Android)'!B81)</f>
         <v>3</v>
       </c>
-      <c r="G46" s="142">
+      <c r="G46" s="115">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H46" s="140">
+      <c r="H46" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G48:G53,'보안요구사항(Android)'!B79)</f>
         <v>0</v>
       </c>
-      <c r="I46" s="140">
+      <c r="I46" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G48:G53,'보안요구사항(Android)'!B80)</f>
         <v>0</v>
       </c>
-      <c r="J46" s="140">
+      <c r="J46" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G48:G53,'보안요구사항(Android)'!B81)</f>
         <v>3</v>
       </c>
-      <c r="K46" s="142">
+      <c r="K46" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="3:11" ht="17">
-      <c r="C47" s="139" t="s">
+      <c r="C47" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="D47" s="140">
+      <c r="D47" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G55:G62,'보안요구사항(Android)'!B79)</f>
         <v>5</v>
       </c>
-      <c r="E47" s="140">
+      <c r="E47" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G55:G62,'보안요구사항(Android)'!B80)</f>
         <v>3</v>
       </c>
-      <c r="F47" s="140">
+      <c r="F47" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G55:G62,'보안요구사항(Android)'!B81)</f>
         <v>0</v>
       </c>
-      <c r="G47" s="142">
+      <c r="G47" s="115">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="H47" s="140">
+      <c r="H47" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G55:G62,'보안요구사항(Android)'!B79)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="140">
+      <c r="I47" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G55:G62,'보안요구사항(Android)'!B80)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="140">
+      <c r="J47" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G55:G62,'보안요구사항(Android)'!B81)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="142">
+      <c r="K47" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="3:11" ht="17">
-      <c r="C48" s="139" t="s">
+      <c r="C48" s="112" t="s">
         <v>262</v>
       </c>
-      <c r="D48" s="140">
+      <c r="D48" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G64:G72,'보안요구사항(Android)'!B79)</f>
         <v>6</v>
       </c>
-      <c r="E48" s="140">
+      <c r="E48" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G64:G72,'보안요구사항(Android)'!B80)</f>
         <v>3</v>
       </c>
-      <c r="F48" s="140">
+      <c r="F48" s="113">
         <f>COUNTIFS('보안요구사항(Android)'!G64:G72,'보안요구사항(Android)'!B81)</f>
         <v>0</v>
       </c>
-      <c r="G48" s="142">
+      <c r="G48" s="115">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H48" s="140">
+      <c r="H48" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G64:G72,'보안요구사항(Android)'!B79)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="140">
+      <c r="I48" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G64:G72,'보안요구사항(Android)'!B80)</f>
         <v>0</v>
       </c>
-      <c r="J48" s="140">
+      <c r="J48" s="113">
         <f>COUNTIFS('보안요구사항(iOS)'!G64:G72,'보안요구사항(Android)'!B81)</f>
         <v>0</v>
       </c>
-      <c r="K48" s="142">
+      <c r="K48" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="3:11" ht="17">
-      <c r="C49" s="139" t="s">
-        <v>297</v>
-      </c>
-      <c r="D49" s="140">
+      <c r="C49" s="112" t="s">
+        <v>292</v>
+      </c>
+      <c r="D49" s="113">
         <f>COUNTIFS('안티리버싱(Android)'!F4:F18,'보안요구사항(Android)'!B79)</f>
         <v>6</v>
       </c>
-      <c r="E49" s="140">
+      <c r="E49" s="113">
         <f>COUNTIFS('안티리버싱(Android)'!F4:F18,'보안요구사항(Android)'!B80)</f>
         <v>3</v>
       </c>
-      <c r="F49" s="140">
+      <c r="F49" s="113">
         <f>COUNTIFS('안티리버싱(Android)'!F4:F18,'보안요구사항(Android)'!B81)</f>
         <v>3</v>
       </c>
-      <c r="G49" s="142">
+      <c r="G49" s="115">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H49" s="140">
+      <c r="H49" s="113">
         <f>COUNTIFS('안티리버싱(iOS)'!F4:F18,'보안요구사항(Android)'!B79)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="140">
+      <c r="I49" s="113">
         <f>COUNTIFS('안티리버싱(iOS)'!F4:F18,'보안요구사항(Android)'!B80)</f>
         <v>0</v>
       </c>
-      <c r="J49" s="140">
+      <c r="J49" s="113">
         <f>COUNTIFS('안티리버싱(iOS)'!F4:F18,'보안요구사항(Android)'!B81)</f>
         <v>12</v>
       </c>
-      <c r="K49" s="142">
+      <c r="K49" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="3:11" ht="17">
-      <c r="C50" s="143" t="s">
-        <v>295</v>
-      </c>
-      <c r="D50" s="144">
+      <c r="C50" s="116" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50" s="117">
         <f>SUM(D42:D49)</f>
         <v>38</v>
       </c>
-      <c r="E50" s="144">
+      <c r="E50" s="117">
         <f t="shared" ref="E50:F50" si="2">SUM(E42:E49)</f>
         <v>15</v>
       </c>
-      <c r="F50" s="144">
+      <c r="F50" s="117">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="G50" s="145">
+      <c r="G50" s="118">
         <f t="shared" ref="G50" si="3">IF(D50+E50=0, 0, D50/(E50+D50))</f>
         <v>0.71698113207547165</v>
       </c>
-      <c r="H50" s="144">
+      <c r="H50" s="117">
         <f>SUM(H42:H49)</f>
         <v>0</v>
       </c>
-      <c r="I50" s="144">
+      <c r="I50" s="117">
         <f t="shared" ref="I50:J50" si="4">SUM(I42:I49)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="144">
+      <c r="J50" s="117">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="K50" s="145">
+      <c r="K50" s="118">
         <f t="shared" ref="K50" si="5">IF(H50+I50=0, 0, H50/(H50+I50))</f>
         <v>0</v>
       </c>
@@ -6030,2027 +6005,2027 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="91" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="100" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="100" customWidth="1"/>
-    <col min="4" max="4" width="80.83203125" style="84" customWidth="1"/>
-    <col min="5" max="7" width="8.33203125" style="91" customWidth="1"/>
-    <col min="8" max="10" width="40.83203125" style="93" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" style="84" customWidth="1"/>
-    <col min="12" max="12" width="11" style="91" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" style="91" customWidth="1"/>
-    <col min="15" max="1025" width="11" style="91" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="93"/>
+    <col min="1" max="1" width="1.83203125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="80" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" style="65" customWidth="1"/>
+    <col min="5" max="7" width="8.33203125" style="72" customWidth="1"/>
+    <col min="8" max="10" width="40.83203125" style="73" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" style="65" customWidth="1"/>
+    <col min="12" max="12" width="11" style="72" customWidth="1"/>
+    <col min="13" max="14" width="10.83203125" style="72" customWidth="1"/>
+    <col min="15" max="1025" width="11" style="72" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="20">
-      <c r="B1" s="92" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
+      <c r="B1" s="149" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="102" t="s">
-        <v>283</v>
-      </c>
-      <c r="E3" s="102" t="s">
+      <c r="D3" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="102" t="s">
+      <c r="F3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="102" t="s">
-        <v>284</v>
-      </c>
-      <c r="H3" s="129" t="s">
-        <v>286</v>
-      </c>
-      <c r="I3" s="130"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="102" t="s">
-        <v>272</v>
+      <c r="G3" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="H3" s="150" t="s">
+        <v>281</v>
+      </c>
+      <c r="I3" s="151"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="82" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="2:11" ht="38">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="108" t="s">
-        <v>304</v>
-      </c>
-      <c r="E5" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="111" t="s">
+      <c r="D5" s="87" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="112" t="str">
+      <c r="H5" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#architectural-information"), "Architectural Information")</f>
         <v>Architectural Information</v>
       </c>
-      <c r="I5" s="112" t="str">
+      <c r="I5" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x05h-Testing-Platform-Interaction.md#testing-for-insecure-configuration-of-instant-apps-mstg-arch-1-mstg-arch-7"), "Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)")</f>
         <v>Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)</v>
       </c>
-      <c r="J5" s="113"/>
-      <c r="K5" s="114"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="93"/>
     </row>
     <row r="6" spans="2:11" ht="57">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="108" t="s">
-        <v>305</v>
-      </c>
-      <c r="E6" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="111" t="s">
+      <c r="D6" s="87" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="112" t="str">
+      <c r="H6" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"), "Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I6" s="115" t="str">
+      <c r="I6" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
-      <c r="J6" s="115"/>
-      <c r="K6" s="114"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="93"/>
     </row>
     <row r="7" spans="2:11" ht="36">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="108" t="s">
-        <v>303</v>
-      </c>
-      <c r="E7" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="111" t="s">
+      <c r="D7" s="87" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H7" s="112" t="str">
+      <c r="H7" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#architectural-information"), "Architectural Information")</f>
         <v>Architectural Information</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="114"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="93"/>
     </row>
     <row r="8" spans="2:11" ht="19">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="108" t="s">
-        <v>302</v>
-      </c>
-      <c r="E8" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="111" t="s">
+      <c r="D8" s="87" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H8" s="112" t="str">
+      <c r="H8" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#identifying-sensitive-data"), "Identifying Sensitive Data")</f>
         <v>Identifying Sensitive Data</v>
       </c>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="114"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="93"/>
     </row>
     <row r="9" spans="2:11" ht="19">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="108" t="s">
-        <v>306</v>
-      </c>
-      <c r="E9" s="113"/>
-      <c r="F9" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="111" t="s">
+      <c r="D9" s="87" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="92"/>
+      <c r="F9" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="112" t="str">
+      <c r="H9" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#environmental-information"), "Environmental Information")</f>
         <v>Environmental Information</v>
       </c>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="114"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="93"/>
     </row>
     <row r="10" spans="2:11" ht="36">
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="108" t="s">
-        <v>301</v>
-      </c>
-      <c r="E10" s="113"/>
-      <c r="F10" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="111" t="s">
+      <c r="D10" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="92"/>
+      <c r="F10" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="115" t="str">
+      <c r="H10" s="94" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#mapping-the-application"), "Mapping the Application")</f>
         <v>Mapping the Application</v>
       </c>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="114"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="93"/>
     </row>
     <row r="11" spans="2:11" ht="52" customHeight="1">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="108" t="s">
-        <v>307</v>
-      </c>
-      <c r="E11" s="113"/>
-      <c r="F11" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="111" t="s">
+      <c r="D11" s="87" t="s">
+        <v>301</v>
+      </c>
+      <c r="E11" s="92"/>
+      <c r="F11" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="115" t="str">
+      <c r="H11" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-insecure-configuration-of-instant-apps-mstg-arch-1-mstg-arch-7"),"Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)")</f>
         <v>Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)</v>
       </c>
-      <c r="I11" s="115" t="str">
+      <c r="I11" s="94" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#principles-of-testing"), "Principles of Testing")</f>
         <v>Principles of Testing</v>
       </c>
-      <c r="J11" s="112" t="str">
+      <c r="J11" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#penetration-testing-aka-pentesting"), "Penetration Testing (a.k.a. Pentesting)")</f>
         <v>Penetration Testing (a.k.a. Pentesting)</v>
       </c>
-      <c r="K11" s="114"/>
+      <c r="K11" s="93"/>
     </row>
     <row r="12" spans="2:11" ht="36">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="108" t="s">
-        <v>308</v>
-      </c>
-      <c r="E12" s="113"/>
-      <c r="F12" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="111" t="s">
+      <c r="D12" s="87" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="92"/>
+      <c r="F12" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="112" t="str">
+      <c r="H12" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04g-Testing-Cryptography.md#cryptographic-policy"), "Cryptographic policy")</f>
         <v>Cryptographic policy</v>
       </c>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="114"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="93"/>
     </row>
     <row r="13" spans="2:11" ht="35" customHeight="1">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="108" t="s">
-        <v>309</v>
-      </c>
-      <c r="E13" s="113"/>
-      <c r="F13" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="111" t="s">
+      <c r="D13" s="87" t="s">
+        <v>303</v>
+      </c>
+      <c r="E13" s="92"/>
+      <c r="F13" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="112" t="str">
+      <c r="H13" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x05h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"), "Testing enforced updating (MSTG-ARCH-9)")</f>
         <v>Testing enforced updating (MSTG-ARCH-9)</v>
       </c>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="114"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="93"/>
     </row>
     <row r="14" spans="2:11" ht="19">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="108" t="s">
-        <v>310</v>
-      </c>
-      <c r="E14" s="113"/>
-      <c r="F14" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="111" t="s">
+      <c r="D14" s="87" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" s="92"/>
+      <c r="F14" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="112" t="str">
+      <c r="H14" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"), "Security Testing and the SDLC")</f>
         <v>Security Testing and the SDLC</v>
       </c>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="114"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="93"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="118" t="s">
-        <v>274</v>
-      </c>
-      <c r="E15" s="119"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="118"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="97" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="97"/>
     </row>
     <row r="16" spans="2:11" ht="55" customHeight="1">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="108" t="s">
-        <v>311</v>
-      </c>
-      <c r="E16" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="111" t="s">
+      <c r="D16" s="87" t="s">
+        <v>305</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="115" t="str">
+      <c r="H16" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2"),"Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
-      <c r="I16" s="115" t="str">
+      <c r="I16" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
-      <c r="J16" s="113"/>
-      <c r="K16" s="114"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="93"/>
     </row>
     <row r="17" spans="2:11" ht="55" customHeight="1">
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="108" t="s">
-        <v>312</v>
-      </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111" t="s">
+      <c r="D17" s="87" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="115" t="str">
+      <c r="H17" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2"),"Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="121"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="100"/>
     </row>
     <row r="18" spans="2:11" ht="38">
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="108" t="s">
-        <v>313</v>
-      </c>
-      <c r="E18" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="111" t="s">
+      <c r="D18" s="87" t="s">
+        <v>307</v>
+      </c>
+      <c r="E18" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H18" s="115" t="str">
+      <c r="H18" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-logs-for-sensitive-data-mstg-storage-3"),"Testing Logs for Sensitive Data (MSTG-STORAGE-3)")</f>
         <v>Testing Logs for Sensitive Data (MSTG-STORAGE-3)</v>
       </c>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="114"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="93"/>
     </row>
     <row r="19" spans="2:11" ht="38">
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="108" t="s">
-        <v>314</v>
-      </c>
-      <c r="E19" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="111" t="s">
+      <c r="D19" s="87" t="s">
+        <v>308</v>
+      </c>
+      <c r="E19" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H19" s="115" t="str">
+      <c r="H19" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties-mstg-storage-4"),"Determining Whether Sensitive Data is Sent to Third Parties (MSTG-STORAGE-4)")</f>
         <v>Determining Whether Sensitive Data is Sent to Third Parties (MSTG-STORAGE-4)</v>
       </c>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="114"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="93"/>
     </row>
     <row r="20" spans="2:11" ht="57">
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="83" t="s">
-        <v>315</v>
-      </c>
-      <c r="E20" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="111" t="s">
+      <c r="D20" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="E20" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="115" t="str">
+      <c r="H20" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-the-keyboard-cache-is-disabled-for-text-input-fields-mstg-storage-5"),"Determining Whether the Keyboard Cache Is Disabled for Text Input Fields (MSTG-STORAGE-5)")</f>
         <v>Determining Whether the Keyboard Cache Is Disabled for Text Input Fields (MSTG-STORAGE-5)</v>
       </c>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="114"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="93"/>
     </row>
     <row r="21" spans="2:11" ht="57">
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="83" t="s">
-        <v>316</v>
-      </c>
-      <c r="E21" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="111" t="s">
+      <c r="D21" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="E21" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H21" s="115" t="str">
+      <c r="H21" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-stored-data-has-been-exposed-via-ipc-mechanisms-mstg-storage-6"),"Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms (MSTG-STORAGE-6)")</f>
         <v>Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms (MSTG-STORAGE-6)</v>
       </c>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="114"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="93"/>
     </row>
     <row r="22" spans="2:11" ht="57">
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="107" t="s">
+      <c r="C22" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="83" t="s">
-        <v>317</v>
-      </c>
-      <c r="E22" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="111" t="s">
+      <c r="D22" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="E22" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H22" s="115" t="str">
+      <c r="H22" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosure-through-the-user-interface-mstg-storage-7"),"Checking for Sensitive Data Disclosure Through the User Interface (MSTG-STORAGE-7)")</f>
         <v>Checking for Sensitive Data Disclosure Through the User Interface (MSTG-STORAGE-7)</v>
       </c>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="114"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="93"/>
     </row>
     <row r="23" spans="2:11" ht="38">
-      <c r="B23" s="107" t="s">
+      <c r="B23" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="107" t="s">
+      <c r="C23" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="83" t="s">
-        <v>318</v>
-      </c>
-      <c r="E23" s="113"/>
-      <c r="F23" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="111" t="s">
+      <c r="D23" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="E23" s="92"/>
+      <c r="F23" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="115" t="str">
+      <c r="H23" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"Testing Backups for Sensitive Data (MSTG-STORAGE-8)")</f>
         <v>Testing Backups for Sensitive Data (MSTG-STORAGE-8)</v>
       </c>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="114"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="93"/>
     </row>
     <row r="24" spans="2:11" ht="58" customHeight="1">
-      <c r="B24" s="107" t="s">
+      <c r="B24" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="107" t="s">
+      <c r="C24" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="83" t="s">
-        <v>319</v>
-      </c>
-      <c r="E24" s="113"/>
-      <c r="F24" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="111" t="s">
+      <c r="D24" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="E24" s="92"/>
+      <c r="F24" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="115" t="str">
+      <c r="H24" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots-mstg-storage-9"),"Finding Sensitive Information in Auto-Generated Screenshots (MSTG-STORAGE-9)")</f>
         <v>Finding Sensitive Information in Auto-Generated Screenshots (MSTG-STORAGE-9)</v>
       </c>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="114"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="93"/>
     </row>
     <row r="25" spans="2:11" ht="38">
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="107" t="s">
+      <c r="C25" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="83" t="s">
-        <v>320</v>
-      </c>
-      <c r="E25" s="113"/>
-      <c r="F25" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="111" t="s">
+      <c r="D25" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="E25" s="92"/>
+      <c r="F25" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="115" t="str">
+      <c r="H25" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-memory-for-sensitive-data-mstg-storage-10"),"Checking Memory for Sensitive Data (MSTG-STORAGE-10)")</f>
         <v>Checking Memory for Sensitive Data (MSTG-STORAGE-10)</v>
       </c>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="114"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="93"/>
     </row>
     <row r="26" spans="2:11" ht="38">
-      <c r="B26" s="107" t="s">
+      <c r="B26" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="107" t="s">
+      <c r="C26" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="83" t="s">
-        <v>321</v>
-      </c>
-      <c r="E26" s="113"/>
-      <c r="F26" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="111" t="s">
+      <c r="D26" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="E26" s="92"/>
+      <c r="F26" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="115" t="str">
+      <c r="H26" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-the-device-access-security-policy-mstg-storage-11"),"Testing the Device-Access-Security Policy (MSTG-STORAGE-11)")</f>
         <v>Testing the Device-Access-Security Policy (MSTG-STORAGE-11)</v>
       </c>
-      <c r="I26" s="115" t="str">
+      <c r="I26" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-confirm-credentials-mstg-auth-1-and-mstg-storage-11"),"Testing Confirm Credentials (MSTG-AUTH-1 and MSTG-STORAGE-11)")</f>
         <v>Testing Confirm Credentials (MSTG-AUTH-1 and MSTG-STORAGE-11)</v>
       </c>
-      <c r="J26" s="113"/>
-      <c r="K26" s="114"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="93"/>
     </row>
     <row r="27" spans="2:11" ht="38">
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="107" t="s">
+      <c r="C27" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="108" t="s">
-        <v>322</v>
-      </c>
-      <c r="E27" s="113"/>
-      <c r="F27" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="111" t="s">
+      <c r="D27" s="87" t="s">
+        <v>316</v>
+      </c>
+      <c r="E27" s="92"/>
+      <c r="F27" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="115" t="str">
+      <c r="H27" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"Testing User Education (MSTG-STORAGE-12)")</f>
         <v>Testing User Education (MSTG-STORAGE-12)</v>
       </c>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="114"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="93"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="118" t="s">
-        <v>275</v>
-      </c>
-      <c r="E28" s="119"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="118"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97" t="s">
+        <v>270</v>
+      </c>
+      <c r="E28" s="98"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="97"/>
     </row>
     <row r="29" spans="2:11" ht="57">
-      <c r="B29" s="107" t="s">
+      <c r="B29" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="107" t="s">
+      <c r="C29" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="83" t="s">
-        <v>323</v>
-      </c>
-      <c r="E29" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="111" t="s">
+      <c r="D29" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="E29" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H29" s="115" t="str">
+      <c r="H29" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
-      <c r="I29" s="115" t="str">
+      <c r="I29" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
-      <c r="J29" s="113"/>
-      <c r="K29" s="114"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="93"/>
     </row>
     <row r="30" spans="2:11" ht="70" customHeight="1">
-      <c r="B30" s="107" t="s">
+      <c r="B30" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="107" t="s">
+      <c r="C30" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="83" t="s">
-        <v>324</v>
-      </c>
-      <c r="E30" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="111" t="s">
+      <c r="D30" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H30" s="115" t="str">
+      <c r="H30" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
-      <c r="I30" s="115" t="str">
+      <c r="I30" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
         <v>Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
       </c>
-      <c r="J30" s="113"/>
-      <c r="K30" s="114"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="93"/>
     </row>
     <row r="31" spans="2:11" ht="81" customHeight="1">
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="107" t="s">
+      <c r="C31" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="108" t="s">
-        <v>325</v>
-      </c>
-      <c r="E31" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="111" t="s">
+      <c r="D31" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="E31" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H31" s="115" t="str">
+      <c r="H31" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
         <v>Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
       </c>
-      <c r="I31" s="115" t="str">
+      <c r="I31" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
-      <c r="J31" s="113"/>
-      <c r="K31" s="114"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="93"/>
     </row>
     <row r="32" spans="2:11" ht="78" customHeight="1">
-      <c r="B32" s="107" t="s">
+      <c r="B32" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="107" t="s">
+      <c r="C32" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="83" t="s">
-        <v>326</v>
-      </c>
-      <c r="E32" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="111" t="s">
+      <c r="D32" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="E32" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H32" s="115" t="str">
+      <c r="H32" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms-mstg-crypto-4"),"Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)")</f>
         <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)</v>
       </c>
-      <c r="I32" s="115" t="str">
+      <c r="I32" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
         <v>Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
       </c>
-      <c r="J32" s="113"/>
-      <c r="K32" s="114"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="93"/>
     </row>
     <row r="33" spans="2:13" ht="55" customHeight="1">
-      <c r="B33" s="107" t="s">
+      <c r="B33" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="107" t="s">
+      <c r="C33" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="83" t="s">
-        <v>327</v>
-      </c>
-      <c r="E33" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="111" t="s">
+      <c r="D33" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="E33" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H33" s="115" t="str">
+      <c r="H33" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="114"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="93"/>
     </row>
     <row r="34" spans="2:13" ht="38">
-      <c r="B34" s="107" t="s">
+      <c r="B34" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="107" t="s">
+      <c r="C34" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="83" t="s">
-        <v>328</v>
-      </c>
-      <c r="E34" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="111" t="s">
+      <c r="D34" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="E34" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="H34" s="115" t="str">
+      <c r="H34" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-random-number-generation-mstg-crypto-6"),"Testing Random Number Generation (MSTG-CRYPTO-6)")</f>
         <v>Testing Random Number Generation (MSTG-CRYPTO-6)</v>
       </c>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="114"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="93"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="117" t="s">
+      <c r="B35" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="117"/>
-      <c r="D35" s="118" t="s">
-        <v>276</v>
-      </c>
-      <c r="E35" s="119"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="119"/>
-      <c r="K35" s="118"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="97" t="s">
+        <v>271</v>
+      </c>
+      <c r="E35" s="98"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="97"/>
     </row>
     <row r="36" spans="2:13" ht="57">
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="107" t="s">
+      <c r="C36" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="114" t="s">
-        <v>329</v>
-      </c>
-      <c r="E36" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="111" t="s">
+      <c r="D36" s="93" t="s">
+        <v>323</v>
+      </c>
+      <c r="E36" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H36" s="115" t="str">
+      <c r="H36" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-confirm-credentials-mstg-auth-1-and-mstg-storage-11"),"Testing Confirm Credentials (MSTG-AUTH-1 and MSTG-STORAGE-11)")</f>
         <v>Testing Confirm Credentials (MSTG-AUTH-1 and MSTG-STORAGE-11)</v>
       </c>
-      <c r="I36" s="115" t="str">
+      <c r="I36" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
-      <c r="J36" s="115" t="str">
+      <c r="J36" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
         <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
       </c>
-      <c r="K36" s="114"/>
+      <c r="K36" s="93"/>
     </row>
     <row r="37" spans="2:13" ht="38">
-      <c r="B37" s="107" t="s">
+      <c r="B37" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="107" t="s">
+      <c r="C37" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="114" t="s">
-        <v>330</v>
-      </c>
-      <c r="E37" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="111" t="s">
+      <c r="D37" s="93" t="s">
+        <v>324</v>
+      </c>
+      <c r="E37" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H37" s="115" t="str">
+      <c r="H37" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management-mstg-auth-2"),"Testing Stateful Session Management (MSTG-AUTH-2)")</f>
         <v>Testing Stateful Session Management (MSTG-AUTH-2)</v>
       </c>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="114"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="93"/>
     </row>
     <row r="38" spans="2:13" ht="38">
-      <c r="B38" s="107" t="s">
+      <c r="B38" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="107" t="s">
+      <c r="C38" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="114" t="s">
-        <v>331</v>
-      </c>
-      <c r="E38" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="111" t="s">
+      <c r="D38" s="93" t="s">
+        <v>325</v>
+      </c>
+      <c r="E38" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H38" s="115" t="str">
+      <c r="H38" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication-mstg-auth-3"),"Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)")</f>
         <v>Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)</v>
       </c>
-      <c r="I38" s="115" t="str">
+      <c r="I38" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
         <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
       </c>
-      <c r="J38" s="113"/>
-      <c r="K38" s="114"/>
-      <c r="M38" s="77"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="93"/>
+      <c r="M38" s="58"/>
     </row>
     <row r="39" spans="2:13" ht="19">
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="107" t="s">
+      <c r="C39" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="114" t="s">
-        <v>332</v>
-      </c>
-      <c r="E39" s="109"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="111" t="s">
+      <c r="D39" s="93" t="s">
+        <v>326</v>
+      </c>
+      <c r="E39" s="88"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H39" s="115" t="str">
+      <c r="H39" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
         <v>Testing User Logout (MSTG-AUTH-4)</v>
       </c>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="114"/>
-      <c r="M39" s="77"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="93"/>
+      <c r="M39" s="58"/>
     </row>
     <row r="40" spans="2:13" ht="38">
-      <c r="B40" s="107" t="s">
+      <c r="B40" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="107" t="s">
+      <c r="C40" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="114" t="s">
-        <v>333</v>
-      </c>
-      <c r="E40" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="111" t="s">
+      <c r="D40" s="93" t="s">
+        <v>327</v>
+      </c>
+      <c r="E40" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="H40" s="115" t="str">
+      <c r="H40" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="114"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="93"/>
     </row>
     <row r="41" spans="2:13" ht="38">
-      <c r="B41" s="107" t="s">
+      <c r="B41" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="107" t="s">
+      <c r="C41" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="114" t="s">
-        <v>334</v>
-      </c>
-      <c r="E41" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="111" t="s">
+      <c r="D41" s="93" t="s">
+        <v>328</v>
+      </c>
+      <c r="E41" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H41" s="115" t="str">
+      <c r="H41" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
-      <c r="I41" s="115" t="str">
+      <c r="I41" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#dynamic-testing-mstg-auth-6"),"Dynamic Testing (MSTG-AUTH-6)")</f>
         <v>Dynamic Testing (MSTG-AUTH-6)</v>
       </c>
-      <c r="J41" s="113"/>
-      <c r="K41" s="114"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="93"/>
     </row>
     <row r="42" spans="2:13" ht="36">
-      <c r="B42" s="107" t="s">
+      <c r="B42" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="107" t="s">
+      <c r="C42" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="114" t="s">
-        <v>335</v>
-      </c>
-      <c r="E42" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="111" t="s">
+      <c r="D42" s="93" t="s">
+        <v>329</v>
+      </c>
+      <c r="E42" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="H42" s="115" t="str">
+      <c r="H42" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-session-timeout-mstg-auth-7"),"Testing Session Timeout (MSTG-AUTH-7)")</f>
         <v>Testing Session Timeout (MSTG-AUTH-7)</v>
       </c>
-      <c r="I42" s="122"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="122"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="101"/>
     </row>
     <row r="43" spans="2:13" ht="38">
-      <c r="B43" s="107" t="s">
+      <c r="B43" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="107" t="s">
+      <c r="C43" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="114" t="s">
-        <v>336</v>
-      </c>
-      <c r="E43" s="113"/>
-      <c r="F43" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="111" t="s">
+      <c r="D43" s="93" t="s">
+        <v>330</v>
+      </c>
+      <c r="E43" s="92"/>
+      <c r="F43" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="115" t="str">
+      <c r="H43" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-biometric-authentication-mstg-auth-8"),"Testing Biometric Authentication (MSTG-AUTH-8)")</f>
         <v>Testing Biometric Authentication (MSTG-AUTH-8)</v>
       </c>
-      <c r="I43" s="113"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="114"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="93"/>
     </row>
     <row r="44" spans="2:13" ht="57">
-      <c r="B44" s="107" t="s">
+      <c r="B44" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="107" t="s">
+      <c r="C44" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="114" t="s">
-        <v>337</v>
-      </c>
-      <c r="E44" s="113"/>
-      <c r="F44" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="111" t="s">
+      <c r="D44" s="93" t="s">
+        <v>331</v>
+      </c>
+      <c r="E44" s="92"/>
+      <c r="F44" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="115" t="str">
+      <c r="H44" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="114"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="93"/>
     </row>
     <row r="45" spans="2:13" ht="57">
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="107" t="s">
+      <c r="C45" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="114" t="s">
-        <v>338</v>
-      </c>
-      <c r="E45" s="113"/>
-      <c r="F45" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="111" t="s">
+      <c r="D45" s="93" t="s">
+        <v>332</v>
+      </c>
+      <c r="E45" s="92"/>
+      <c r="F45" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="115" t="str">
+      <c r="H45" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="114"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="93"/>
     </row>
     <row r="46" spans="2:13" ht="38">
-      <c r="B46" s="107" t="s">
+      <c r="B46" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="107" t="s">
+      <c r="C46" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="114" t="s">
-        <v>339</v>
-      </c>
-      <c r="E46" s="113"/>
-      <c r="F46" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="111" t="s">
+      <c r="D46" s="93" t="s">
+        <v>333</v>
+      </c>
+      <c r="E46" s="92"/>
+      <c r="F46" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="112" t="str">
+      <c r="H46" s="91" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"),"Testing Login Activity and Device Blocking (MSTG-AUTH-11)")</f>
         <v>Testing Login Activity and Device Blocking (MSTG-AUTH-11)</v>
       </c>
-      <c r="I46" s="113"/>
-      <c r="J46" s="113"/>
-      <c r="K46" s="114"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="93"/>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="117" t="s">
+      <c r="B47" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="117"/>
-      <c r="D47" s="118" t="s">
-        <v>277</v>
-      </c>
-      <c r="E47" s="119"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="118"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="E47" s="98"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="98"/>
+      <c r="J47" s="98"/>
+      <c r="K47" s="97"/>
     </row>
     <row r="48" spans="2:13" ht="57">
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="107" t="s">
+      <c r="C48" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="83" t="s">
-        <v>340</v>
-      </c>
-      <c r="E48" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="111" t="s">
+      <c r="D48" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="E48" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="H48" s="115" t="str">
+      <c r="H48" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
-      <c r="I48" s="113"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="114"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="93"/>
     </row>
     <row r="49" spans="2:11" ht="57">
-      <c r="B49" s="107" t="s">
+      <c r="B49" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="107" t="s">
+      <c r="C49" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="114" t="s">
-        <v>341</v>
-      </c>
-      <c r="E49" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="111" t="s">
+      <c r="D49" s="93" t="s">
+        <v>335</v>
+      </c>
+      <c r="E49" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H49" s="115" t="str">
+      <c r="H49" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
-      <c r="I49" s="113"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="114"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="92"/>
+      <c r="K49" s="93"/>
     </row>
     <row r="50" spans="2:11" ht="38">
-      <c r="B50" s="107" t="s">
+      <c r="B50" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="107" t="s">
+      <c r="C50" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="114" t="s">
-        <v>342</v>
-      </c>
-      <c r="E50" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="111" t="s">
+      <c r="D50" s="93" t="s">
+        <v>336</v>
+      </c>
+      <c r="E50" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H50" s="115" t="str">
+      <c r="H50" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-endpoint-identify-verification-mstg-network-3"),"Testing Endpoint Identify Verification (MSTG-NETWORK-3)")</f>
         <v>Testing Endpoint Identify Verification (MSTG-NETWORK-3)</v>
       </c>
-      <c r="I50" s="115"/>
-      <c r="J50" s="115"/>
-      <c r="K50" s="112"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="91"/>
     </row>
     <row r="51" spans="2:11" ht="54" customHeight="1">
-      <c r="B51" s="107" t="s">
+      <c r="B51" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="107" t="s">
+      <c r="C51" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="114" t="s">
-        <v>343</v>
-      </c>
-      <c r="E51" s="113"/>
-      <c r="F51" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="111" t="s">
+      <c r="D51" s="93" t="s">
+        <v>337</v>
+      </c>
+      <c r="E51" s="92"/>
+      <c r="F51" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H51" s="115" t="str">
+      <c r="H51" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-4)")</f>
         <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-4)</v>
       </c>
-      <c r="I51" s="115" t="str">
+      <c r="I51" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-network-security-configuration-settings-mstg-network-4"),"Testing the Network Security Configuration Settings (MSTG-NETWORK-4)")</f>
         <v>Testing the Network Security Configuration Settings (MSTG-NETWORK-4)</v>
       </c>
-      <c r="J51" s="113"/>
-      <c r="K51" s="114"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="93"/>
     </row>
     <row r="52" spans="2:11" ht="57">
-      <c r="B52" s="107" t="s">
+      <c r="B52" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="107" t="s">
+      <c r="C52" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="114" t="s">
-        <v>344</v>
-      </c>
-      <c r="E52" s="113"/>
-      <c r="F52" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="111" t="s">
+      <c r="D52" s="93" t="s">
+        <v>338</v>
+      </c>
+      <c r="E52" s="92"/>
+      <c r="F52" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="115" t="str">
+      <c r="H52" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)")</f>
         <v>Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)</v>
       </c>
-      <c r="I52" s="113"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="114"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="92"/>
+      <c r="K52" s="93"/>
     </row>
     <row r="53" spans="2:11" ht="38">
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="107" t="s">
+      <c r="C53" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="114" t="s">
-        <v>345</v>
-      </c>
-      <c r="E53" s="113"/>
-      <c r="F53" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="111" t="s">
+      <c r="D53" s="93" t="s">
+        <v>339</v>
+      </c>
+      <c r="E53" s="92"/>
+      <c r="F53" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H53" s="115" t="str">
+      <c r="H53" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-security-provider-mstg-network-6"),"Testing the Security Provider (MSTG-NETWORK-6)")</f>
         <v>Testing the Security Provider (MSTG-NETWORK-6)</v>
       </c>
-      <c r="I53" s="113"/>
-      <c r="J53" s="113"/>
-      <c r="K53" s="114"/>
+      <c r="I53" s="92"/>
+      <c r="J53" s="92"/>
+      <c r="K53" s="93"/>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="117" t="s">
+      <c r="B54" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="117"/>
-      <c r="D54" s="118" t="s">
-        <v>278</v>
-      </c>
-      <c r="E54" s="119"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="119"/>
-      <c r="J54" s="119"/>
-      <c r="K54" s="118"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="97" t="s">
+        <v>273</v>
+      </c>
+      <c r="E54" s="98"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="98"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="97"/>
     </row>
     <row r="55" spans="2:11" ht="38">
-      <c r="B55" s="107" t="s">
+      <c r="B55" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="107" t="s">
+      <c r="C55" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="83" t="s">
-        <v>346</v>
-      </c>
-      <c r="E55" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="111" t="s">
+      <c r="D55" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="E55" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H55" s="115" t="str">
+      <c r="H55" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-app-permissions-mstg-platform-1"),"Testing App Permissions (MSTG-PLATFORM-1)")</f>
         <v>Testing App Permissions (MSTG-PLATFORM-1)</v>
       </c>
-      <c r="I55" s="113"/>
-      <c r="J55" s="113"/>
-      <c r="K55" s="114"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="93"/>
     </row>
     <row r="56" spans="2:11" ht="54">
-      <c r="B56" s="107" t="s">
+      <c r="B56" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="107" t="s">
+      <c r="C56" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="114" t="s">
-        <v>347</v>
-      </c>
-      <c r="E56" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="111" t="s">
+      <c r="D56" s="93" t="s">
+        <v>341</v>
+      </c>
+      <c r="E56" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H56" s="115" t="str">
+      <c r="H56" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#testing-for-injection-flaws-mstg-platform-2"),"Testing for Injection Flaws (MSTG-PLATFORM-2)")</f>
         <v>Testing for Injection Flaws (MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I56" s="115" t="str">
+      <c r="I56" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#testing-for-fragment-injection-mstg-platform-2"),"Testing for Fragment Injection (MSTG-PLATFORM-2)")</f>
         <v>Testing for Fragment Injection (MSTG-PLATFORM-2)</v>
       </c>
-      <c r="J56" s="113"/>
-      <c r="K56" s="114"/>
+      <c r="J56" s="92"/>
+      <c r="K56" s="93"/>
     </row>
     <row r="57" spans="2:11" ht="38">
-      <c r="B57" s="107" t="s">
+      <c r="B57" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="107" t="s">
+      <c r="C57" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="83" t="s">
-        <v>348</v>
-      </c>
-      <c r="E57" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="111" t="s">
+      <c r="D57" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="E57" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H57" s="115" t="str">
+      <c r="H57" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-custom-url-schemes-mstg-platform-3"),"Testing Custom URL Schemes (MSTG-PLATFORM-3)")</f>
         <v>Testing Custom URL Schemes (MSTG-PLATFORM-3)</v>
       </c>
-      <c r="I57" s="113"/>
-      <c r="J57" s="113"/>
-      <c r="K57" s="114"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="93"/>
     </row>
     <row r="58" spans="2:11" ht="54" customHeight="1">
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="107" t="s">
+      <c r="C58" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="83" t="s">
-        <v>349</v>
-      </c>
-      <c r="E58" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="111" t="s">
+      <c r="D58" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="E58" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H58" s="115" t="str">
+      <c r="H58" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc-mstg-platform-4"),"Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)")</f>
         <v>Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)</v>
       </c>
-      <c r="I58" s="113"/>
-      <c r="J58" s="113"/>
-      <c r="K58" s="114"/>
+      <c r="I58" s="92"/>
+      <c r="J58" s="92"/>
+      <c r="K58" s="93"/>
     </row>
     <row r="59" spans="2:11" ht="38">
-      <c r="B59" s="107" t="s">
+      <c r="B59" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="107" t="s">
+      <c r="C59" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="83" t="s">
-        <v>350</v>
-      </c>
-      <c r="E59" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="111" t="s">
+      <c r="D59" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="E59" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="H59" s="115" t="str">
+      <c r="H59" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-javascript-execution-in-webviews-mstg-platform-5"),"Testing JavaScript Execution in WebViews (MSTG-PLATFORM-5)")</f>
         <v>Testing JavaScript Execution in WebViews (MSTG-PLATFORM-5)</v>
       </c>
-      <c r="I59" s="113"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="114"/>
+      <c r="I59" s="92"/>
+      <c r="J59" s="92"/>
+      <c r="K59" s="93"/>
     </row>
     <row r="60" spans="2:11" ht="38">
-      <c r="B60" s="107" t="s">
+      <c r="B60" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="107" t="s">
+      <c r="C60" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="D60" s="114" t="s">
-        <v>351</v>
-      </c>
-      <c r="E60" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" s="111" t="s">
+      <c r="D60" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="E60" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H60" s="115" t="str">
+      <c r="H60" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers-mstg-platform-6"),"Testing WebView Protocol Handlers (MSTG-PLATFORM-6)")</f>
         <v>Testing WebView Protocol Handlers (MSTG-PLATFORM-6)</v>
       </c>
-      <c r="I60" s="113"/>
-      <c r="J60" s="113"/>
-      <c r="K60" s="114"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="92"/>
+      <c r="K60" s="93"/>
     </row>
     <row r="61" spans="2:11" ht="57">
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="107" t="s">
+      <c r="C61" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="114" t="s">
-        <v>352</v>
-      </c>
-      <c r="E61" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" s="111" t="s">
+      <c r="D61" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="E61" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="H61" s="115" t="str">
+      <c r="H61" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#determining-whether-java-objects-are-exposed-through-webviews-mstg-platform-7"),"Determining Whether Java Objects Are Exposed Through WebViews (MSTG-PLATFORM-7)")</f>
         <v>Determining Whether Java Objects Are Exposed Through WebViews (MSTG-PLATFORM-7)</v>
       </c>
-      <c r="I61" s="113"/>
-      <c r="J61" s="113"/>
-      <c r="K61" s="114"/>
+      <c r="I61" s="92"/>
+      <c r="J61" s="92"/>
+      <c r="K61" s="93"/>
     </row>
     <row r="62" spans="2:11" ht="38">
-      <c r="B62" s="107" t="s">
+      <c r="B62" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="107" t="s">
+      <c r="C62" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="83" t="s">
-        <v>353</v>
-      </c>
-      <c r="E62" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="111" t="s">
+      <c r="D62" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="E62" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="H62" s="115" t="str">
+      <c r="H62" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-object-persistence-mstg-platform-8"),"Testing Object Persistence (MSTG-PLATFORM-8)")</f>
         <v>Testing Object Persistence (MSTG-PLATFORM-8)</v>
       </c>
-      <c r="I62" s="113"/>
-      <c r="J62" s="113"/>
-      <c r="K62" s="114"/>
+      <c r="I62" s="92"/>
+      <c r="J62" s="92"/>
+      <c r="K62" s="93"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="117" t="s">
+      <c r="B63" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="117"/>
-      <c r="D63" s="118" t="s">
-        <v>279</v>
-      </c>
-      <c r="E63" s="119"/>
-      <c r="F63" s="120"/>
-      <c r="G63" s="119"/>
-      <c r="H63" s="119"/>
-      <c r="I63" s="119"/>
-      <c r="J63" s="119"/>
-      <c r="K63" s="118"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="97" t="s">
+        <v>274</v>
+      </c>
+      <c r="E63" s="98"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="98"/>
+      <c r="H63" s="98"/>
+      <c r="I63" s="98"/>
+      <c r="J63" s="98"/>
+      <c r="K63" s="97"/>
     </row>
     <row r="64" spans="2:11" ht="38">
-      <c r="B64" s="107" t="s">
+      <c r="B64" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="107" t="s">
+      <c r="C64" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="83" t="s">
-        <v>354</v>
-      </c>
-      <c r="E64" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="111" t="s">
+      <c r="D64" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="E64" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H64" s="115" t="str">
+      <c r="H64" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed-mstg-code-1"),"Making Sure That the App is Properly Signed (MSTG-CODE-1)")</f>
         <v>Making Sure That the App is Properly Signed (MSTG-CODE-1)</v>
       </c>
-      <c r="I64" s="113"/>
-      <c r="J64" s="113"/>
-      <c r="K64" s="114"/>
+      <c r="I64" s="92"/>
+      <c r="J64" s="92"/>
+      <c r="K64" s="93"/>
     </row>
     <row r="65" spans="2:12" ht="38">
-      <c r="B65" s="107" t="s">
+      <c r="B65" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="107" t="s">
+      <c r="C65" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="83" t="s">
-        <v>355</v>
-      </c>
-      <c r="E65" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="111" t="s">
+      <c r="D65" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="E65" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="H65" s="115" t="str">
+      <c r="H65" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-whether-the-app-is-debuggable-mstg-code-2"),"Testing Whether the App is Debuggable (MSTG-CODE-2)")</f>
         <v>Testing Whether the App is Debuggable (MSTG-CODE-2)</v>
       </c>
-      <c r="I65" s="113"/>
-      <c r="J65" s="113"/>
-      <c r="K65" s="114"/>
+      <c r="I65" s="92"/>
+      <c r="J65" s="92"/>
+      <c r="K65" s="93"/>
     </row>
     <row r="66" spans="2:12" ht="38">
-      <c r="B66" s="107" t="s">
+      <c r="B66" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="107" t="s">
+      <c r="C66" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="83" t="s">
-        <v>356</v>
-      </c>
-      <c r="E66" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" s="111" t="s">
+      <c r="D66" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="E66" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H66" s="115" t="str">
+      <c r="H66" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-for-debugging-symbols-mstg-code-3"),"Testing for Debugging Symbols (MSTG-CODE-3)")</f>
         <v>Testing for Debugging Symbols (MSTG-CODE-3)</v>
       </c>
-      <c r="I66" s="113"/>
-      <c r="J66" s="113"/>
-      <c r="K66" s="114"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="92"/>
+      <c r="K66" s="93"/>
     </row>
     <row r="67" spans="2:12" ht="38">
-      <c r="B67" s="107" t="s">
+      <c r="B67" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="107" t="s">
+      <c r="C67" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="D67" s="83" t="s">
-        <v>357</v>
-      </c>
-      <c r="E67" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="111" t="s">
+      <c r="D67" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="E67" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="H67" s="115" t="str">
+      <c r="H67" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-for-debugging-code-and-verbose-error-logging-mstg-code-4"),"Testing for Debugging Code and Verbose Error Logging (MSTG-CODE-4)")</f>
         <v>Testing for Debugging Code and Verbose Error Logging (MSTG-CODE-4)</v>
       </c>
-      <c r="I67" s="113"/>
-      <c r="J67" s="113"/>
-      <c r="K67" s="114"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="93"/>
     </row>
     <row r="68" spans="2:12" ht="38">
-      <c r="B68" s="107" t="s">
+      <c r="B68" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="107" t="s">
+      <c r="C68" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="108" t="s">
-        <v>358</v>
-      </c>
-      <c r="E68" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" s="111" t="s">
+      <c r="D68" s="87" t="s">
+        <v>352</v>
+      </c>
+      <c r="E68" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H68" s="112" t="str">
+      <c r="H68" s="91" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),"Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
         <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
-      <c r="I68" s="113"/>
-      <c r="J68" s="113"/>
-      <c r="K68" s="114"/>
+      <c r="I68" s="92"/>
+      <c r="J68" s="92"/>
+      <c r="K68" s="93"/>
     </row>
     <row r="69" spans="2:12" ht="38">
-      <c r="B69" s="107" t="s">
+      <c r="B69" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="107" t="s">
+      <c r="C69" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="83" t="s">
-        <v>359</v>
-      </c>
-      <c r="E69" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" s="111" t="s">
+      <c r="D69" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="E69" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="H69" s="115" t="str">
+      <c r="H69" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6-and-mstg-code-7"),"Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)")</f>
         <v>Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)</v>
       </c>
-      <c r="I69" s="113"/>
-      <c r="J69" s="113"/>
-      <c r="K69" s="114"/>
+      <c r="I69" s="92"/>
+      <c r="J69" s="92"/>
+      <c r="K69" s="93"/>
     </row>
     <row r="70" spans="2:12" ht="38">
-      <c r="B70" s="107" t="s">
+      <c r="B70" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="107" t="s">
+      <c r="C70" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="83" t="s">
-        <v>360</v>
-      </c>
-      <c r="E70" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="111" t="s">
+      <c r="D70" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="E70" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H70" s="115" t="str">
+      <c r="H70" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6-and-mstg-code-7"),"Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)")</f>
         <v>Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)</v>
       </c>
-      <c r="I70" s="113"/>
-      <c r="J70" s="113"/>
-      <c r="K70" s="114"/>
+      <c r="I70" s="92"/>
+      <c r="J70" s="92"/>
+      <c r="K70" s="93"/>
     </row>
     <row r="71" spans="2:12" ht="19">
-      <c r="B71" s="107" t="s">
+      <c r="B71" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="107" t="s">
+      <c r="C71" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="83" t="s">
-        <v>361</v>
-      </c>
-      <c r="E71" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="111" t="s">
+      <c r="D71" s="64" t="s">
+        <v>355</v>
+      </c>
+      <c r="E71" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H71" s="115" t="str">
+      <c r="H71" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#memory-corruption-bugs-mstg-code-8"),"Memory Corruption Bugs (MSTG-CODE-8)")</f>
         <v>Memory Corruption Bugs (MSTG-CODE-8)</v>
       </c>
-      <c r="I71" s="113"/>
-      <c r="J71" s="113"/>
-      <c r="K71" s="123"/>
-      <c r="L71" s="94"/>
+      <c r="I71" s="92"/>
+      <c r="J71" s="92"/>
+      <c r="K71" s="102"/>
+      <c r="L71" s="74"/>
     </row>
     <row r="72" spans="2:12" ht="38">
-      <c r="B72" s="107" t="s">
+      <c r="B72" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="107" t="s">
+      <c r="C72" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="D72" s="108" t="s">
-        <v>362</v>
-      </c>
-      <c r="E72" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="111" t="s">
+      <c r="D72" s="87" t="s">
+        <v>356</v>
+      </c>
+      <c r="E72" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H72" s="115" t="str">
+      <c r="H72" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated-mstg-code-9"),"Make Sure That Free Security Features Are Activated (MSTG-CODE-9)")</f>
         <v>Make Sure That Free Security Features Are Activated (MSTG-CODE-9)</v>
       </c>
-      <c r="I72" s="113"/>
-      <c r="J72" s="113"/>
-      <c r="K72" s="114"/>
+      <c r="I72" s="92"/>
+      <c r="J72" s="92"/>
+      <c r="K72" s="93"/>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="66"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="69"/>
-      <c r="G73" s="69"/>
-      <c r="H73" s="69"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="70"/>
-      <c r="K73" s="79"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="60"/>
     </row>
     <row r="74" spans="2:12">
-      <c r="B74" s="95"/>
-      <c r="C74" s="95"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="97"/>
-      <c r="I74" s="97"/>
-      <c r="J74" s="97"/>
-      <c r="K74" s="80"/>
+      <c r="B74" s="75"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="76"/>
+      <c r="F74" s="76"/>
+      <c r="G74" s="76"/>
+      <c r="H74" s="77"/>
+      <c r="I74" s="77"/>
+      <c r="J74" s="77"/>
+      <c r="K74" s="61"/>
     </row>
     <row r="75" spans="2:12">
-      <c r="B75" s="95"/>
-      <c r="C75" s="95"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="96"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="97"/>
-      <c r="J75" s="97"/>
-      <c r="K75" s="80"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="76"/>
+      <c r="F75" s="76"/>
+      <c r="G75" s="76"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="77"/>
+      <c r="J75" s="77"/>
+      <c r="K75" s="61"/>
     </row>
     <row r="76" spans="2:12">
-      <c r="B76" s="95"/>
-      <c r="C76" s="95"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="96"/>
-      <c r="F76" s="96"/>
-      <c r="G76" s="96"/>
-      <c r="H76" s="97"/>
-      <c r="I76" s="97"/>
-      <c r="J76" s="97"/>
-      <c r="K76" s="80"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="77"/>
+      <c r="I76" s="77"/>
+      <c r="J76" s="77"/>
+      <c r="K76" s="61"/>
     </row>
     <row r="77" spans="2:12">
-      <c r="B77" s="98" t="s">
-        <v>280</v>
-      </c>
-      <c r="C77" s="99"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="96"/>
-      <c r="F77" s="96"/>
-      <c r="G77" s="96"/>
-      <c r="H77" s="97"/>
-      <c r="I77" s="97"/>
-      <c r="J77" s="97"/>
-      <c r="K77" s="80"/>
+      <c r="B77" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="C77" s="79"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="76"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="77"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="61"/>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="C78" s="85"/>
-      <c r="D78" s="86" t="s">
-        <v>282</v>
-      </c>
-      <c r="E78" s="96"/>
-      <c r="F78" s="96"/>
-      <c r="G78" s="96"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="97"/>
-      <c r="J78" s="97"/>
-      <c r="K78" s="80"/>
+      <c r="B78" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="C78" s="66"/>
+      <c r="D78" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="E78" s="76"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="77"/>
+      <c r="I78" s="77"/>
+      <c r="J78" s="77"/>
+      <c r="K78" s="61"/>
     </row>
     <row r="79" spans="2:12">
-      <c r="B79" s="87" t="s">
+      <c r="B79" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="C79" s="82"/>
-      <c r="D79" s="83" t="s">
-        <v>363</v>
-      </c>
-      <c r="E79" s="96"/>
-      <c r="F79" s="96"/>
-      <c r="G79" s="96"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="97"/>
-      <c r="J79" s="97"/>
-      <c r="K79" s="80"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="E79" s="76"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="76"/>
+      <c r="H79" s="77"/>
+      <c r="I79" s="77"/>
+      <c r="J79" s="77"/>
+      <c r="K79" s="61"/>
     </row>
     <row r="80" spans="2:12">
-      <c r="B80" s="87" t="s">
+      <c r="B80" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="C80" s="82"/>
-      <c r="D80" s="83" t="s">
-        <v>364</v>
-      </c>
-      <c r="E80" s="96"/>
-      <c r="F80" s="96"/>
-      <c r="G80" s="96"/>
-      <c r="H80" s="97"/>
-      <c r="I80" s="97"/>
-      <c r="J80" s="97"/>
-      <c r="K80" s="80"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="E80" s="76"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="76"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="77"/>
+      <c r="J80" s="77"/>
+      <c r="K80" s="61"/>
     </row>
     <row r="81" spans="2:11">
-      <c r="B81" s="87" t="s">
+      <c r="B81" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C81" s="82"/>
-      <c r="D81" s="83" t="s">
-        <v>365</v>
-      </c>
-      <c r="E81" s="96"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="96"/>
-      <c r="H81" s="97"/>
-      <c r="I81" s="97"/>
-      <c r="J81" s="97"/>
-      <c r="K81" s="80"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="E81" s="76"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="77"/>
+      <c r="J81" s="77"/>
+      <c r="K81" s="61"/>
     </row>
     <row r="82" spans="2:11">
-      <c r="B82" s="95"/>
-      <c r="C82" s="95"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="96"/>
-      <c r="F82" s="96"/>
-      <c r="G82" s="96"/>
-      <c r="H82" s="97"/>
-      <c r="I82" s="97"/>
-      <c r="J82" s="97"/>
-      <c r="K82" s="80"/>
+      <c r="B82" s="75"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="61"/>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" s="95"/>
-      <c r="C83" s="95"/>
-      <c r="D83" s="80"/>
-      <c r="E83" s="96"/>
-      <c r="F83" s="96"/>
-      <c r="G83" s="96"/>
-      <c r="H83" s="97"/>
-      <c r="I83" s="97"/>
-      <c r="J83" s="97"/>
-      <c r="K83" s="80"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="76"/>
+      <c r="G83" s="76"/>
+      <c r="H83" s="77"/>
+      <c r="I83" s="77"/>
+      <c r="J83" s="77"/>
+      <c r="K83" s="61"/>
     </row>
     <row r="84" spans="2:11">
-      <c r="B84" s="95"/>
-      <c r="C84" s="95"/>
-      <c r="D84" s="80"/>
-      <c r="E84" s="96"/>
-      <c r="F84" s="96"/>
-      <c r="G84" s="96"/>
-      <c r="H84" s="97"/>
-      <c r="I84" s="97"/>
-      <c r="J84" s="97"/>
-      <c r="K84" s="80"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="75"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="77"/>
+      <c r="I84" s="77"/>
+      <c r="J84" s="77"/>
+      <c r="K84" s="61"/>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85" s="95"/>
-      <c r="C85" s="95"/>
-      <c r="D85" s="80"/>
-      <c r="E85" s="96"/>
-      <c r="F85" s="96"/>
-      <c r="G85" s="96"/>
-      <c r="H85" s="97"/>
-      <c r="I85" s="97"/>
-      <c r="J85" s="97"/>
-      <c r="K85" s="80"/>
+      <c r="B85" s="75"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="77"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8086,479 +8061,479 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="91" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="100" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="100" customWidth="1"/>
-    <col min="4" max="4" width="80.83203125" style="84" customWidth="1"/>
-    <col min="5" max="6" width="8.33203125" style="91" customWidth="1"/>
-    <col min="7" max="7" width="40.83203125" style="93" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="84" customWidth="1"/>
-    <col min="9" max="1025" width="11" style="91" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="93"/>
+    <col min="1" max="1" width="1.83203125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="80" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="80" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" style="65" customWidth="1"/>
+    <col min="5" max="6" width="8.33203125" style="72" customWidth="1"/>
+    <col min="7" max="7" width="40.83203125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" style="65" customWidth="1"/>
+    <col min="9" max="1025" width="11" style="72" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="20">
-      <c r="B1" s="136" t="s">
-        <v>287</v>
-      </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
+      <c r="B1" s="153" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="80"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="102" t="s">
-        <v>294</v>
-      </c>
-      <c r="E3" s="102" t="s">
-        <v>288</v>
-      </c>
-      <c r="F3" s="102" t="s">
+      <c r="D3" s="82" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>283</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="96" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97" t="s">
         <v>284</v>
       </c>
-      <c r="G3" s="102" t="s">
-        <v>286</v>
-      </c>
-      <c r="H3" s="102" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="117" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118" t="s">
-        <v>289</v>
-      </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="118"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="97"/>
     </row>
     <row r="5" spans="2:8" ht="38">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="114" t="s">
-        <v>366</v>
-      </c>
-      <c r="E5" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="111" t="s">
+      <c r="D5" s="93" t="s">
+        <v>360</v>
+      </c>
+      <c r="E5" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="115" t="str">
+      <c r="G5" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-root-detection-mstg-resilience-1"),"Testing Root Detection (MSTG-RESILIENCE-1)")</f>
         <v>Testing Root Detection (MSTG-RESILIENCE-1)</v>
       </c>
-      <c r="H5" s="114"/>
+      <c r="H5" s="93"/>
     </row>
     <row r="6" spans="2:8" ht="38">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="114" t="s">
-        <v>367</v>
-      </c>
-      <c r="E6" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="111" t="s">
+      <c r="D6" s="93" t="s">
+        <v>361</v>
+      </c>
+      <c r="E6" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="115" t="str">
+      <c r="G6" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-anti-debugging-detection-mstg-resilience-2"),"Testing Anti-Debugging Detection (MSTG-RESILIENCE-2)")</f>
         <v>Testing Anti-Debugging Detection (MSTG-RESILIENCE-2)</v>
       </c>
-      <c r="H6" s="114"/>
+      <c r="H6" s="93"/>
     </row>
     <row r="7" spans="2:8" ht="38">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="83" t="s">
-        <v>368</v>
-      </c>
-      <c r="E7" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="111" t="s">
+      <c r="D7" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="E7" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="115" t="str">
+      <c r="G7" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-file-integrity-checks-mstg-resilience-3"),"Testing File Integrity Checks (MSTG-RESILIENCE-3)")</f>
         <v>Testing File Integrity Checks (MSTG-RESILIENCE-3)</v>
       </c>
-      <c r="H7" s="114"/>
+      <c r="H7" s="93"/>
     </row>
     <row r="8" spans="2:8" ht="38">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="83" t="s">
-        <v>369</v>
-      </c>
-      <c r="E8" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="111" t="s">
+      <c r="D8" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="E8" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="115" t="str">
+      <c r="G8" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-reverse-engineering-tools-detection-mstg-resilience-4"),"Testing Reverse Engineering Tools Detection (MSTG-RESILIENCE-4)")</f>
         <v>Testing Reverse Engineering Tools Detection (MSTG-RESILIENCE-4)</v>
       </c>
-      <c r="H8" s="114"/>
+      <c r="H8" s="93"/>
     </row>
     <row r="9" spans="2:8" ht="38">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="83" t="s">
-        <v>370</v>
-      </c>
-      <c r="E9" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="111" t="s">
+      <c r="D9" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="E9" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="G9" s="115" t="str">
+      <c r="G9" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection-mstg-resilience-5"),"Testing Emulator Detection (MSTG-RESILIENCE-5)")</f>
         <v>Testing Emulator Detection (MSTG-RESILIENCE-5)</v>
       </c>
-      <c r="H9" s="114"/>
+      <c r="H9" s="93"/>
     </row>
     <row r="10" spans="2:8" ht="38">
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="83" t="s">
-        <v>371</v>
-      </c>
-      <c r="E10" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="111" t="s">
+      <c r="D10" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="E10" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="115" t="str">
+      <c r="G10" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-run-time-integrity-checks-mstg-resilience-6"),"Testing Run Time Integrity Checks (MSTG-RESILIENCE-6)")</f>
         <v>Testing Run Time Integrity Checks (MSTG-RESILIENCE-6)</v>
       </c>
-      <c r="H10" s="114"/>
+      <c r="H10" s="93"/>
     </row>
     <row r="11" spans="2:8" ht="36">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="114" t="s">
-        <v>372</v>
-      </c>
-      <c r="E11" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="111" t="s">
+      <c r="D11" s="93" t="s">
+        <v>366</v>
+      </c>
+      <c r="E11" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="134" t="s">
+      <c r="G11" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="H11" s="114"/>
+      <c r="H11" s="93"/>
     </row>
     <row r="12" spans="2:8" ht="19">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="83" t="s">
-        <v>373</v>
-      </c>
-      <c r="E12" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="111" t="s">
+      <c r="D12" s="64" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="G12" s="135" t="s">
+      <c r="G12" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="H12" s="114"/>
+      <c r="H12" s="93"/>
     </row>
     <row r="13" spans="2:8" ht="19">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="83" t="s">
-        <v>374</v>
-      </c>
-      <c r="E13" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="111" t="s">
+      <c r="D13" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="E13" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="G13" s="115" t="str">
+      <c r="G13" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9"),"Testing Obfuscation (MSTG-RESILIENCE-9)")</f>
         <v>Testing Obfuscation (MSTG-RESILIENCE-9)</v>
       </c>
-      <c r="H13" s="114"/>
+      <c r="H13" s="93"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="117" t="s">
-        <v>292</v>
-      </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="118" t="s">
-        <v>290</v>
-      </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="118"/>
+      <c r="B14" s="96" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97" t="s">
+        <v>285</v>
+      </c>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="97"/>
     </row>
     <row r="15" spans="2:8" ht="38">
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="114" t="s">
-        <v>375</v>
-      </c>
-      <c r="E15" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="111" t="s">
+      <c r="D15" s="93" t="s">
+        <v>369</v>
+      </c>
+      <c r="E15" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="115" t="str">
+      <c r="G15" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-device-binding-mstg-resilience-10"),"Testing Device Binding (MSTG-RESILIENCE-10)")</f>
         <v>Testing Device Binding (MSTG-RESILIENCE-10)</v>
       </c>
-      <c r="H15" s="114"/>
+      <c r="H15" s="93"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="117" t="s">
-        <v>293</v>
-      </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="118" t="s">
-        <v>378</v>
-      </c>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="118"/>
+      <c r="B16" s="96" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="96"/>
+      <c r="D16" s="97" t="s">
+        <v>372</v>
+      </c>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="97"/>
     </row>
     <row r="17" spans="2:8" ht="54">
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="114" t="s">
-        <v>376</v>
-      </c>
-      <c r="E17" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="111" t="s">
+      <c r="D17" s="93" t="s">
+        <v>370</v>
+      </c>
+      <c r="E17" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="115" t="str">
+      <c r="G17" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9"),"Testing Obfuscation (MSTG-RESILIENCE-9)")</f>
         <v>Testing Obfuscation (MSTG-RESILIENCE-9)</v>
       </c>
-      <c r="H17" s="114"/>
+      <c r="H17" s="93"/>
     </row>
     <row r="18" spans="2:8" ht="72">
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="114" t="s">
-        <v>377</v>
-      </c>
-      <c r="E18" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="111" t="s">
+      <c r="D18" s="93" t="s">
+        <v>371</v>
+      </c>
+      <c r="E18" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="135" t="s">
+      <c r="G18" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="H18" s="114"/>
+      <c r="H18" s="93"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="79"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="60"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="80"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="61"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="80"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="98" t="s">
-        <v>280</v>
-      </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="80"/>
+      <c r="B22" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="79"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="61"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86" t="s">
-        <v>282</v>
-      </c>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="80"/>
+      <c r="B23" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="61"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83" t="str">
+      <c r="C24" s="63"/>
+      <c r="D24" s="64" t="str">
         <f>'보안요구사항(Android)'!D79</f>
         <v>요구사항이 모바일 앱에 적용되며 모범 사례에 따라 구현되어 있는 경우</v>
       </c>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="80"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="61"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83" t="str">
+      <c r="C25" s="63"/>
+      <c r="D25" s="64" t="str">
         <f>'보안요구사항(Android)'!D80</f>
         <v>요구사항이 모바일 앱에는 적용되지만 모든 요구사항을 충족하지 못하는 경우</v>
       </c>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="80"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="61"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83" t="str">
+      <c r="C26" s="63"/>
+      <c r="D26" s="64" t="str">
         <f>'보안요구사항(Android)'!D81</f>
         <v>요구사항이 모바일 앱에 해당 사항이 없는 경우</v>
       </c>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="80"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="61"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="80"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="61"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="80"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="61"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="80"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8586,1981 +8561,1981 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="93" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="125" customWidth="1"/>
-    <col min="4" max="4" width="80.83203125" style="124" customWidth="1"/>
-    <col min="5" max="7" width="8.33203125" style="93" customWidth="1"/>
-    <col min="8" max="10" width="40.83203125" style="93" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" style="124" customWidth="1"/>
-    <col min="12" max="12" width="11" style="93" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" style="93" customWidth="1"/>
-    <col min="15" max="1025" width="11" style="93" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="93"/>
+    <col min="1" max="1" width="1.83203125" style="73" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="104" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="104" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" style="103" customWidth="1"/>
+    <col min="5" max="7" width="8.33203125" style="73" customWidth="1"/>
+    <col min="8" max="10" width="40.83203125" style="73" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" style="103" customWidth="1"/>
+    <col min="12" max="12" width="11" style="73" customWidth="1"/>
+    <col min="13" max="14" width="10.83203125" style="73" customWidth="1"/>
+    <col min="15" max="1025" width="11" style="73" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="20">
-      <c r="B1" s="128" t="s">
-        <v>285</v>
-      </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
+      <c r="B1" s="155" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="102" t="s">
-        <v>283</v>
-      </c>
-      <c r="E3" s="102" t="s">
+      <c r="D3" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="102" t="s">
+      <c r="F3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="102" t="s">
-        <v>284</v>
-      </c>
-      <c r="H3" s="103" t="s">
-        <v>286</v>
-      </c>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="102" t="s">
-        <v>272</v>
+      <c r="G3" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="H3" s="154" t="s">
+        <v>281</v>
+      </c>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="82" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105" t="str">
+      <c r="C4" s="83"/>
+      <c r="D4" s="84" t="str">
         <f>'보안요구사항(Android)'!D4</f>
         <v>아키텍처, 디자인 및 위협 모델링</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="2:11" ht="19">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="154" t="str">
+      <c r="D5" s="125" t="str">
         <f>'보안요구사항(Android)'!D5</f>
         <v>모든 앱 구성 요소가 필요한 것으로 식별되어야 한다.</v>
       </c>
-      <c r="E5" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="111"/>
-      <c r="H5" s="112" t="str">
+      <c r="E5" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#architectural-information"), "Architectural Information")</f>
         <v>Architectural Information</v>
       </c>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="114"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="93"/>
     </row>
     <row r="6" spans="2:11" ht="57">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="154" t="str">
+      <c r="D6" s="125" t="str">
         <f>'보안요구사항(Android)'!D6</f>
         <v>보안 제어는 클라이언트측에서만 적용되는 것이 아니라 각각의 원격 엔드 포인트에서도 적용되어야 한다.</v>
       </c>
-      <c r="E6" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="112" t="str">
+      <c r="E6" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"), "Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I6" s="115" t="str">
+      <c r="I6" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
-      <c r="J6" s="115"/>
-      <c r="K6" s="114"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="93"/>
     </row>
     <row r="7" spans="2:11" ht="36">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="154" t="str">
+      <c r="D7" s="125" t="str">
         <f>'보안요구사항(Android)'!D7</f>
         <v>모바일 앱과 연결되는 모든 원격 서비스에 대한 고급 아키텍처가 정의되었으며 해당 아키텍처에서 보안이 지원되어야 한다.</v>
       </c>
-      <c r="E7" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112" t="str">
+      <c r="E7" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#architectural-information"), "Architectural Information")</f>
         <v>Architectural Information</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="114"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="93"/>
     </row>
     <row r="8" spans="2:11" ht="19">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="154" t="str">
+      <c r="D8" s="125" t="str">
         <f>'보안요구사항(Android)'!D8</f>
         <v>모바일 앱의 컨텍스트에서 민감한 것으로 간주되는 데이터가 명확하게 식별되어야 한다.</v>
       </c>
-      <c r="E8" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="111"/>
-      <c r="H8" s="112" t="str">
+      <c r="E8" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#identifying-sensitive-data"), "Identifying Sensitive Data")</f>
         <v>Identifying Sensitive Data</v>
       </c>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="114"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="93"/>
     </row>
     <row r="9" spans="2:11" ht="19">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="154" t="str">
+      <c r="D9" s="125" t="str">
         <f>'보안요구사항(Android)'!D9</f>
         <v>모든 앱 구성 요소는 비즈니스 기능과 보안 기능이 적용되어야 한다.</v>
       </c>
-      <c r="E9" s="113"/>
-      <c r="F9" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="111" t="s">
+      <c r="E9" s="92"/>
+      <c r="F9" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="112" t="str">
+      <c r="H9" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#environmental-information"), "Environmental Information")</f>
         <v>Environmental Information</v>
       </c>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="114"/>
-    </row>
-    <row r="10" spans="2:11" ht="19">
-      <c r="B10" s="107" t="s">
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="93"/>
+    </row>
+    <row r="10" spans="2:11" ht="36">
+      <c r="B10" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="154" t="str">
+      <c r="D10" s="125" t="str">
         <f>'보안요구사항(Android)'!D10</f>
         <v>모바일 앱과 연관된 원격 서비스의 위협 모델을 만들어 잠재적인 위협에 대한 대책을 적용하여야 한다.</v>
       </c>
-      <c r="E10" s="113"/>
-      <c r="F10" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="111" t="s">
+      <c r="E10" s="92"/>
+      <c r="F10" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="112" t="str">
+      <c r="H10" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#mapping-the-application"), "Mapping the Application")</f>
         <v>Mapping the Application</v>
       </c>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="114"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="93"/>
     </row>
     <row r="11" spans="2:11" ht="19">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="154" t="str">
+      <c r="D11" s="125" t="str">
         <f>'보안요구사항(Android)'!D11</f>
         <v>모든 보안 제어는 중앙 집중식으로 구현되어야 한다.</v>
       </c>
-      <c r="E11" s="113"/>
-      <c r="F11" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="111" t="s">
+      <c r="E11" s="92"/>
+      <c r="F11" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="112" t="str">
+      <c r="H11" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#principles-of-testing"), "Principles of Testing")</f>
         <v>Principles of Testing</v>
       </c>
-      <c r="I11" s="115" t="str">
+      <c r="I11" s="94" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#penetration-testing-aka-pentesting"), "Penetration Testing (a.k.a. Pentesting)")</f>
         <v>Penetration Testing (a.k.a. Pentesting)</v>
       </c>
-      <c r="J11" s="115"/>
-      <c r="K11" s="114"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="93"/>
     </row>
     <row r="12" spans="2:11" ht="36">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="154" t="str">
+      <c r="D12" s="125" t="str">
         <f>'보안요구사항(Android)'!D12</f>
         <v>암호화 키(있는 경우)를 관리하는 방법에 대한 명시적인 정책이 있으며 암호화 키의 수명주기가 적용되어야 한다. (NIST SP 800-57 등과 같은 키 관리 표준을 준수하는 것이 좋음)</v>
       </c>
-      <c r="E12" s="113"/>
-      <c r="F12" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="111" t="s">
+      <c r="E12" s="92"/>
+      <c r="F12" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="112" t="str">
+      <c r="H12" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04g-Testing-Cryptography.md#cryptographic-policy"), "Cryptographic policy")</f>
         <v>Cryptographic policy</v>
       </c>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="114"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="93"/>
     </row>
     <row r="13" spans="2:11" ht="35" customHeight="1">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="154" t="str">
+      <c r="D13" s="125" t="str">
         <f>'보안요구사항(Android)'!D13</f>
         <v>모바일 앱의 업데이트를 강제화하는 메커니즘이 존재하여야 하다.</v>
       </c>
-      <c r="E13" s="113"/>
-      <c r="F13" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="111" t="s">
+      <c r="E13" s="92"/>
+      <c r="F13" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="112" t="str">
+      <c r="H13" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x06h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"), "Testing enforced updating (MSTG-ARCH-9)")</f>
         <v>Testing enforced updating (MSTG-ARCH-9)</v>
       </c>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="114"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="93"/>
     </row>
     <row r="14" spans="2:11" ht="19">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="154" t="str">
+      <c r="D14" s="125" t="str">
         <f>'보안요구사항(Android)'!D14</f>
         <v>소프트웨어 개발 수명주기의 모든 부분에서 보안을 적용하여야 한다.</v>
       </c>
-      <c r="E14" s="113"/>
-      <c r="F14" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="111" t="s">
+      <c r="E14" s="92"/>
+      <c r="F14" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="112" t="str">
+      <c r="H14" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"), "Security Testing and the SDLC")</f>
         <v>Security Testing and the SDLC</v>
       </c>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="114"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="93"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="105" t="str">
+      <c r="C15" s="96"/>
+      <c r="D15" s="84" t="str">
         <f>'보안요구사항(Android)'!D15</f>
         <v>데이터 저장 및 개인 정보</v>
       </c>
-      <c r="E15" s="119"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="118"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="97"/>
     </row>
     <row r="16" spans="2:11" ht="38">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="154" t="str">
+      <c r="D16" s="125" t="str">
         <f>'보안요구사항(Android)'!D16</f>
         <v>개인 식별 정보(PII), 사용자 자격 증명 암호화 키 같은 중요한 데이터를 저장하기 위해 시스템 자격 증명 저장 기능을 적절하게 사용하여야 한다.</v>
       </c>
-      <c r="E16" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="111"/>
-      <c r="H16" s="115" t="str">
+      <c r="E16" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="90"/>
+      <c r="H16" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2"),"Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="114"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="93"/>
     </row>
     <row r="17" spans="2:12" ht="38">
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="154" t="str">
+      <c r="D17" s="125" t="str">
         <f>'보안요구사항(Android)'!D17</f>
         <v>민감한 데이터는 앱 컨테이너 또는 시스템 자격 증명 저장 시설 외부에 저장하지 않아야 한다.</v>
       </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="115" t="str">
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2"),"Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="114"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="93"/>
     </row>
     <row r="18" spans="2:12" ht="38">
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="154" t="str">
+      <c r="D18" s="125" t="str">
         <f>'보안요구사항(Android)'!D18</f>
         <v>민감한 데이터는 응용 프로그램 로그에 기록하지 않아야 한다.</v>
       </c>
-      <c r="E18" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="111"/>
-      <c r="H18" s="115" t="str">
+      <c r="E18" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="90"/>
+      <c r="H18" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data-mstg-storage-3"),"Checking Logs for Sensitive Data (MSTG-STORAGE-3)")</f>
         <v>Checking Logs for Sensitive Data (MSTG-STORAGE-3)</v>
       </c>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="114"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="93"/>
     </row>
     <row r="19" spans="2:12" ht="38">
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="154" t="str">
+      <c r="D19" s="125" t="str">
         <f>'보안요구사항(Android)'!D19</f>
         <v>민감한 데이터는 아키텍처에서 필요한 부분이 아닌 한 제3자와 공유하지 않아야 한다.</v>
       </c>
-      <c r="E19" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="111"/>
-      <c r="H19" s="115" t="str">
+      <c r="E19" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="90"/>
+      <c r="H19" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties-mstg-storage-4"),"Determining Whether Sensitive Data Is Sent to Third Parties (MSTG-STORAGE-4)")</f>
         <v>Determining Whether Sensitive Data Is Sent to Third Parties (MSTG-STORAGE-4)</v>
       </c>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="114"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="93"/>
     </row>
     <row r="20" spans="2:12" ht="38">
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="154" t="str">
+      <c r="D20" s="125" t="str">
         <f>'보안요구사항(Android)'!D20</f>
         <v>민감한 데이터를 처리하는 텍스트 입력에서 키보드 캐시가 비활성화 되어야 한다.</v>
       </c>
-      <c r="E20" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="111"/>
-      <c r="H20" s="115" t="str">
+      <c r="E20" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="90"/>
+      <c r="H20" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache-mstg-storage-5"),"Finding Sensitive Data in the Keyboard Cache (MSTG-STORAGE-5)")</f>
         <v>Finding Sensitive Data in the Keyboard Cache (MSTG-STORAGE-5)</v>
       </c>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="114"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="93"/>
     </row>
     <row r="21" spans="2:12" ht="57">
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="154" t="str">
+      <c r="D21" s="125" t="str">
         <f>'보안요구사항(Android)'!D21</f>
         <v>민감한 데이터는 IPC 메커니즘을 통해 노출되지 않아야 한다.</v>
       </c>
-      <c r="E21" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="111"/>
-      <c r="H21" s="115" t="str">
+      <c r="E21" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="90"/>
+      <c r="H21" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms-mstg-storage-6"),"Determining Whether Sensitive Data Is Exposed via IPC Mechanisms (MSTG-STORAGE-6)")</f>
         <v>Determining Whether Sensitive Data Is Exposed via IPC Mechanisms (MSTG-STORAGE-6)</v>
       </c>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="114"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="93"/>
     </row>
     <row r="22" spans="2:12" ht="34">
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="107" t="s">
+      <c r="C22" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="154" t="str">
+      <c r="D22" s="125" t="str">
         <f>'보안요구사항(Android)'!D22</f>
         <v>비밀번호 또는 핀과 같은 민감한 데이터는 사용자 인터페이스를 통해 노출되지 않아야 한다.</v>
       </c>
-      <c r="E22" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="111"/>
-      <c r="H22" s="116" t="str">
+      <c r="E22" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="90"/>
+      <c r="H22" s="95" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface-mstg-storage-7"),"Checking for Sensitive Data Disclosed Through the User Interface (MSTG-STORAGE-7)")</f>
         <v>Checking for Sensitive Data Disclosed Through the User Interface (MSTG-STORAGE-7)</v>
       </c>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="114"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="93"/>
     </row>
     <row r="23" spans="2:12" ht="38">
-      <c r="B23" s="107" t="s">
+      <c r="B23" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="107" t="s">
+      <c r="C23" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="154" t="str">
+      <c r="D23" s="125" t="str">
         <f>'보안요구사항(Android)'!D23</f>
         <v>민감한 데이터는 모바일 운영체제에서 생성된 백업에 포함되지 않아야 한다.</v>
       </c>
-      <c r="E23" s="113"/>
-      <c r="F23" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="111" t="s">
+      <c r="E23" s="92"/>
+      <c r="F23" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="115" t="str">
+      <c r="H23" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"Testing Backups for Sensitive Data (MSTG-STORAGE-8)")</f>
         <v>Testing Backups for Sensitive Data (MSTG-STORAGE-8)</v>
       </c>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="114"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="93"/>
     </row>
     <row r="24" spans="2:12" ht="38">
-      <c r="B24" s="107" t="s">
+      <c r="B24" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="107" t="s">
+      <c r="C24" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="154" t="str">
+      <c r="D24" s="125" t="str">
         <f>'보안요구사항(Android)'!D24</f>
         <v>민감한 데이터는 앱이 백그라운드로 이동할 때 뷰에서 제거되어야 한다.</v>
       </c>
-      <c r="E24" s="113"/>
-      <c r="F24" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="111" t="s">
+      <c r="E24" s="92"/>
+      <c r="F24" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="115" t="str">
+      <c r="H24" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information-mstg-storage-9"),"Testing Auto-Generated Screenshots for Sensitive Information (MSTG-STORAGE-9)")</f>
         <v>Testing Auto-Generated Screenshots for Sensitive Information (MSTG-STORAGE-9)</v>
       </c>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="114"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="93"/>
     </row>
     <row r="25" spans="2:12" ht="38">
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="107" t="s">
+      <c r="C25" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="154" t="str">
+      <c r="D25" s="125" t="str">
         <f>'보안요구사항(Android)'!D25</f>
         <v>민감한 데이터는 앱이 필요한 것보다 더 긴 시간 동안 메모리에 유지되지 않아야 하며, 사용 후에는 메모리에서 명시적으로 삭제하여야 한다.</v>
       </c>
-      <c r="E25" s="113"/>
-      <c r="F25" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="111" t="s">
+      <c r="E25" s="92"/>
+      <c r="F25" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="115" t="str">
+      <c r="H25" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data-mstg-storage-10"),"Testing Memory for Sensitive Data (MSTG-STORAGE-10)")</f>
         <v>Testing Memory for Sensitive Data (MSTG-STORAGE-10)</v>
       </c>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="114"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="93"/>
     </row>
     <row r="26" spans="2:12" ht="38">
-      <c r="B26" s="107" t="s">
+      <c r="B26" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="107" t="s">
+      <c r="C26" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="154" t="str">
+      <c r="D26" s="125" t="str">
         <f>'보안요구사항(Android)'!D26</f>
         <v>앱은 사용자에게 장치 암호를 설정하도록 요구하는 것과 같은 최소한의 장치 액세스 보안 정책을 설정하도록 하여야 한다.</v>
       </c>
-      <c r="E26" s="113"/>
-      <c r="F26" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="111" t="s">
+      <c r="E26" s="92"/>
+      <c r="F26" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="115" t="str">
+      <c r="H26" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
         <v>Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)</v>
       </c>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="114"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="93"/>
     </row>
     <row r="27" spans="2:12" ht="38">
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="107" t="s">
+      <c r="C27" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="154" t="str">
+      <c r="D27" s="125" t="str">
         <f>'보안요구사항(Android)'!D27</f>
         <v>앱은 처리되는 개인 식별 정보의 유형과 사용자가 앱 사용시 준수해야하는 보안 모범 사례에 대해 통지하여야 한다.</v>
       </c>
-      <c r="E27" s="113"/>
-      <c r="F27" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="111" t="s">
+      <c r="E27" s="92"/>
+      <c r="F27" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="112" t="str">
+      <c r="H27" s="91" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"Testing User Education (MSTG-STORAGE-12)")</f>
         <v>Testing User Education (MSTG-STORAGE-12)</v>
       </c>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="91"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="72"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="105" t="str">
+      <c r="C28" s="96"/>
+      <c r="D28" s="84" t="str">
         <f>'보안요구사항(Android)'!D28</f>
         <v>암호화</v>
       </c>
-      <c r="E28" s="119"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="118"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="97"/>
     </row>
     <row r="29" spans="2:12" ht="38">
-      <c r="B29" s="107" t="s">
+      <c r="B29" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="107" t="s">
+      <c r="C29" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="154" t="str">
+      <c r="D29" s="125" t="str">
         <f>'보안요구사항(Android)'!D29</f>
         <v>앱은 암호화의 유일한 방법으로 하드 코드 된 키에 의한 대칭 암호화에 의존하지 않아야 한다.</v>
       </c>
-      <c r="E29" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="111"/>
-      <c r="H29" s="115" t="str">
+      <c r="E29" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="90"/>
+      <c r="H29" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="114"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="93"/>
     </row>
     <row r="30" spans="2:12" ht="57">
-      <c r="B30" s="107" t="s">
+      <c r="B30" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="107" t="s">
+      <c r="C30" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="154" t="str">
+      <c r="D30" s="125" t="str">
         <f>'보안요구사항(Android)'!D30</f>
         <v>앱은 검증된 암호화 알고리즘으로 구현하여야 한다.</v>
       </c>
-      <c r="E30" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="111"/>
-      <c r="H30" s="115" t="str">
+      <c r="E30" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="90"/>
+      <c r="H30" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-and-mstg-crypto-3"),"Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="114"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="93"/>
     </row>
     <row r="31" spans="2:12" ht="57">
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="107" t="s">
+      <c r="C31" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="154" t="str">
+      <c r="D31" s="125" t="str">
         <f>'보안요구사항(Android)'!D31</f>
         <v>앱은 업계 모범 사례를 준수하는 매개 변수로 구성된 특정 유스케이스에 적합한 암호화 알고리즘을 사용하여야 한다.</v>
       </c>
-      <c r="E31" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="111"/>
-      <c r="H31" s="115" t="str">
+      <c r="E31" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="90"/>
+      <c r="H31" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-and-mstg-crypto-3"),"Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="114"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="93"/>
     </row>
     <row r="32" spans="2:12" ht="57">
-      <c r="B32" s="107" t="s">
+      <c r="B32" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="107" t="s">
+      <c r="C32" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="154" t="str">
+      <c r="D32" s="125" t="str">
         <f>'보안요구사항(Android)'!D32</f>
         <v>앱은 보안적인 목적으로 널리 사용되지 않는 암호화 프로토콜과 알고리즘을 사용하지 않아야 한다.</v>
       </c>
-      <c r="E32" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="111"/>
-      <c r="H32" s="115" t="str">
+      <c r="E32" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="90"/>
+      <c r="H32" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms-mstg-crypto-4"),"Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)")</f>
         <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)</v>
       </c>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="114"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="93"/>
     </row>
     <row r="33" spans="2:13" ht="38">
-      <c r="B33" s="107" t="s">
+      <c r="B33" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="107" t="s">
+      <c r="C33" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="154" t="str">
+      <c r="D33" s="125" t="str">
         <f>'보안요구사항(Android)'!D33</f>
         <v>앱은 여러 목적으로 동일한 암호화 키를 재사용하지 않아야 한다.</v>
       </c>
-      <c r="E33" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="111"/>
-      <c r="H33" s="115" t="str">
+      <c r="E33" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="90"/>
+      <c r="H33" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="114"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="93"/>
     </row>
     <row r="34" spans="2:13" ht="38">
-      <c r="B34" s="107" t="s">
+      <c r="B34" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="107" t="s">
+      <c r="C34" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="154" t="str">
+      <c r="D34" s="125" t="str">
         <f>'보안요구사항(Android)'!D34</f>
         <v>모든 난수 값은 충분히 안전한 난수 생성기를 사용하여 생성하여야 한다.</v>
       </c>
-      <c r="E34" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="111"/>
-      <c r="H34" s="115" t="str">
+      <c r="E34" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="90"/>
+      <c r="H34" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-random-number-generation-mstg-crypto-6")," Testing Random Number Generation (MSTG-CRYPTO-6)")</f>
         <v xml:space="preserve"> Testing Random Number Generation (MSTG-CRYPTO-6)</v>
       </c>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="114"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="93"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="117" t="s">
+      <c r="B35" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="117"/>
-      <c r="D35" s="105" t="str">
+      <c r="C35" s="96"/>
+      <c r="D35" s="84" t="str">
         <f>'보안요구사항(Android)'!D35</f>
         <v>인증 및 세션 관리</v>
       </c>
-      <c r="E35" s="119"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="119"/>
-      <c r="K35" s="118"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="97"/>
     </row>
     <row r="36" spans="2:13" ht="57">
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="107" t="s">
+      <c r="C36" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="154" t="str">
+      <c r="D36" s="125" t="str">
         <f>'보안요구사항(Android)'!D36</f>
         <v>앱이 사용자에게 원격 서비스에 대한 액세스를 제공하는 경우 사용자 이름과 암호로의 인증 방식은 원격 엔드 포인트에서 수행되어야 한다.</v>
       </c>
-      <c r="E36" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="111"/>
-      <c r="H36" s="115" t="str">
+      <c r="E36" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="90"/>
+      <c r="H36" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
-      <c r="I36" s="115" t="str">
+      <c r="I36" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
         <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
       </c>
-      <c r="J36" s="115"/>
-      <c r="K36" s="114"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="93"/>
     </row>
     <row r="37" spans="2:13" ht="38">
-      <c r="B37" s="107" t="s">
+      <c r="B37" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="107" t="s">
+      <c r="C37" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="154" t="str">
+      <c r="D37" s="125" t="str">
         <f>'보안요구사항(Android)'!D37</f>
         <v>안정된 세션 관리를 사용하는 경우 원격 엔드 포인트는 임의로 생성된 세션 식별자를 사용하여 사용자의 자격 증명을 보내지 않고 클라이언트 요청을 인증하여야 한다.</v>
       </c>
-      <c r="E37" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="111"/>
-      <c r="H37" s="115" t="str">
+      <c r="E37" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="90"/>
+      <c r="H37" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management-mstg-auth-2"),"Testing Stateful Session Management (MSTG-AUTH-2)")</f>
         <v>Testing Stateful Session Management (MSTG-AUTH-2)</v>
       </c>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="114"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="93"/>
     </row>
     <row r="38" spans="2:13" ht="38">
-      <c r="B38" s="107" t="s">
+      <c r="B38" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="107" t="s">
+      <c r="C38" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="154" t="str">
+      <c r="D38" s="125" t="str">
         <f>'보안요구사항(Android)'!D38</f>
         <v>상태 비 저장 토큰 기반 인증을 사용하는 경우 서버는 보안 알고리즘을 사용하여 서명된 토큰을 제공하여야 한다.</v>
       </c>
-      <c r="E38" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="111"/>
-      <c r="H38" s="115" t="str">
+      <c r="E38" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="90"/>
+      <c r="H38" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication-mstg-auth-3"),"Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)")</f>
         <v>Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)</v>
       </c>
-      <c r="I38" s="115" t="str">
+      <c r="I38" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
         <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
       </c>
-      <c r="J38" s="115"/>
-      <c r="K38" s="114"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="93"/>
     </row>
     <row r="39" spans="2:13" ht="19">
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="107" t="s">
+      <c r="C39" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="154" t="str">
+      <c r="D39" s="125" t="str">
         <f>'보안요구사항(Android)'!D39</f>
         <v>사용자가 로그아웃하면 원격 엔드 포인트는 기존의 세션을 종료하여야 한다.</v>
       </c>
-      <c r="E39" s="109"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="115" t="str">
+      <c r="E39" s="88"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
         <v>Testing User Logout (MSTG-AUTH-4)</v>
       </c>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="114"/>
-      <c r="M39" s="77"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="93"/>
+      <c r="M39" s="58"/>
     </row>
     <row r="40" spans="2:13" ht="38">
-      <c r="B40" s="107" t="s">
+      <c r="B40" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="107" t="s">
+      <c r="C40" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="154" t="str">
+      <c r="D40" s="125" t="str">
         <f>'보안요구사항(Android)'!D40</f>
         <v>비밀번호 정책이 존재하며 원격 엔드 포인트에서 검증되어야 한다.</v>
       </c>
-      <c r="E40" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="111"/>
-      <c r="H40" s="115" t="str">
+      <c r="E40" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="90"/>
+      <c r="H40" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="114"/>
-      <c r="M40" s="77"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="93"/>
+      <c r="M40" s="58"/>
     </row>
     <row r="41" spans="2:13" ht="38">
-      <c r="B41" s="107" t="s">
+      <c r="B41" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="107" t="s">
+      <c r="C41" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="154" t="str">
+      <c r="D41" s="125" t="str">
         <f>'보안요구사항(Android)'!D41</f>
         <v>원격 엔드 포인트는 과도하게 자격 증명 제출에 대한 보호 메커니즘을 구현하여야 한다.</v>
       </c>
-      <c r="E41" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="111"/>
-      <c r="H41" s="115" t="str">
+      <c r="E41" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="90"/>
+      <c r="H41" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
-      <c r="I41" s="115" t="str">
+      <c r="I41" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#dynamic-testing-mstg-auth-6"),"Dynamic Testing (MSTG-AUTH-6)")</f>
         <v>Dynamic Testing (MSTG-AUTH-6)</v>
       </c>
-      <c r="J41" s="115"/>
-      <c r="K41" s="114"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="93"/>
     </row>
     <row r="42" spans="2:13" ht="36">
-      <c r="B42" s="107" t="s">
+      <c r="B42" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="107" t="s">
+      <c r="C42" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="154" t="str">
+      <c r="D42" s="125" t="str">
         <f>'보안요구사항(Android)'!D42</f>
         <v>사전 정의 된 비 활동 기간 및 액세스 토큰이 만료 된 후 원격 엔드 포인트에서 세션이 무효화되어야 한다.</v>
       </c>
-      <c r="E42" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="111"/>
-      <c r="H42" s="115" t="str">
+      <c r="E42" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="90"/>
+      <c r="H42" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-session-timeout-mstg-auth-7"),"Testing Session Timeout (MSTG-AUTH-7)")</f>
         <v>Testing Session Timeout (MSTG-AUTH-7)</v>
       </c>
-      <c r="I42" s="122"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="122"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="101"/>
     </row>
     <row r="43" spans="2:13" ht="38">
-      <c r="B43" s="107" t="s">
+      <c r="B43" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="107" t="s">
+      <c r="C43" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="154" t="str">
+      <c r="D43" s="125" t="str">
         <f>'보안요구사항(Android)'!D43</f>
         <v>생체 인식 인증이 사용되는 경우(예 : 단순히 "true"또는 "false"를 반환하는 API 사용) 이벤트 바인은 사용하지 않아야 한다. 대신 키 체인 및 키 스토어 잠금 해제를 기반으로 하여야 한다.</v>
       </c>
-      <c r="E43" s="113"/>
-      <c r="F43" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="111" t="s">
+      <c r="E43" s="92"/>
+      <c r="F43" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="115" t="str">
+      <c r="H43" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
         <v>Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)</v>
       </c>
-      <c r="I43" s="115"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="114"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="93"/>
     </row>
     <row r="44" spans="2:13" ht="57">
-      <c r="B44" s="107" t="s">
+      <c r="B44" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="107" t="s">
+      <c r="C44" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="154" t="str">
+      <c r="D44" s="125" t="str">
         <f>'보안요구사항(Android)'!D44</f>
         <v>두 번째 인증 요소는 원격 엔드 포인트에 존재하여야 하며, 2FA 요구 사항이 지속적으로 적용되어야 한다.</v>
       </c>
-      <c r="E44" s="113"/>
-      <c r="F44" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="111" t="s">
+      <c r="E44" s="92"/>
+      <c r="F44" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="115" t="str">
+      <c r="H44" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="114"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="93"/>
     </row>
     <row r="45" spans="2:13" ht="57">
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="107" t="s">
+      <c r="C45" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="154" t="str">
+      <c r="D45" s="125" t="str">
         <f>'보안요구사항(Android)'!D45</f>
         <v>민감한 트랜잭션에는 단계별 인증을 적용하여야 한다.</v>
       </c>
-      <c r="E45" s="113"/>
-      <c r="F45" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="111" t="s">
+      <c r="E45" s="92"/>
+      <c r="F45" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="115" t="str">
+      <c r="H45" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="114"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="93"/>
     </row>
     <row r="46" spans="2:13" ht="38">
-      <c r="B46" s="107" t="s">
+      <c r="B46" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="107" t="s">
+      <c r="C46" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="154" t="str">
+      <c r="D46" s="125" t="str">
         <f>'보안요구사항(Android)'!D46</f>
         <v>앱은 사용자에게 사용자 계정의 모든 로그인 활동을 통지하여야 한다. 사용자는 계정에 액세스하고 사용되는 장비 목록 보고 특정 장치를 차단할 수 있어야 한다.</v>
       </c>
-      <c r="E46" s="113"/>
-      <c r="F46" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="111" t="s">
+      <c r="E46" s="92"/>
+      <c r="F46" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="112" t="str">
+      <c r="H46" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"), "Testing Login Activity and Device Blocking (MSTG-AUTH-11)")</f>
         <v>Testing Login Activity and Device Blocking (MSTG-AUTH-11)</v>
       </c>
-      <c r="I46" s="113"/>
-      <c r="J46" s="113"/>
-      <c r="K46" s="114"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="93"/>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="117" t="s">
+      <c r="B47" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="117"/>
-      <c r="D47" s="105" t="str">
+      <c r="C47" s="96"/>
+      <c r="D47" s="84" t="str">
         <f>'보안요구사항(Android)'!D47</f>
         <v>네트워크 통신</v>
       </c>
-      <c r="E47" s="119"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="118"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="98"/>
+      <c r="J47" s="98"/>
+      <c r="K47" s="97"/>
     </row>
     <row r="48" spans="2:13" ht="57">
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="107" t="s">
+      <c r="C48" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="154" t="str">
+      <c r="D48" s="125" t="str">
         <f>'보안요구사항(Android)'!D48</f>
         <v>데이터는 TLS를 사용하여 네트워크에서 암호화되어야 한다.. 보안 채널은 앱 전체에 일관되게 사용하여야 한다.</v>
       </c>
-      <c r="E48" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="111"/>
-      <c r="H48" s="115" t="str">
+      <c r="E48" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="90"/>
+      <c r="H48" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
-      <c r="I48" s="115"/>
-      <c r="J48" s="115"/>
-      <c r="K48" s="112"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="91"/>
     </row>
     <row r="49" spans="2:11" ht="57">
-      <c r="B49" s="107" t="s">
+      <c r="B49" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="107" t="s">
+      <c r="C49" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="154" t="str">
+      <c r="D49" s="125" t="str">
         <f>'보안요구사항(Android)'!D49</f>
         <v>TLS 설정은 현재 모범 사례와 일치하여야 하며, 모바일 운영 체제가 권장 표준을 지원하지 않는 경우 가능한 한 가장 가까운 모범 사례와 일치하여야 한다.</v>
       </c>
-      <c r="E49" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="111"/>
-      <c r="H49" s="115" t="str">
+      <c r="E49" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="90"/>
+      <c r="H49" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
-      <c r="I49" s="115" t="str">
+      <c r="I49" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#app-transport-security-mstg-network-2"),"App Transport Security (MSTG-NETWORK-2)")</f>
         <v>App Transport Security (MSTG-NETWORK-2)</v>
       </c>
-      <c r="J49" s="115"/>
-      <c r="K49" s="112"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="91"/>
     </row>
     <row r="50" spans="2:11" ht="57">
-      <c r="B50" s="107" t="s">
+      <c r="B50" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="107" t="s">
+      <c r="C50" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="154" t="str">
+      <c r="D50" s="125" t="str">
         <f>'보안요구사항(Android)'!D50</f>
         <v>보안 채널이 설정되면 앱은 원격 앤드 포인트의 X.509 인증서를 검증하여야 한다. 신뢰할 수 있는 CA가 서명한 인증서만 허용하여야 한다.</v>
       </c>
-      <c r="E50" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="111"/>
-      <c r="H50" s="115" t="str">
+      <c r="E50" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="90"/>
+      <c r="H50" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-3-and-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)")</f>
         <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)</v>
       </c>
-      <c r="I50" s="113"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="112"/>
+      <c r="I50" s="92"/>
+      <c r="J50" s="92"/>
+      <c r="K50" s="91"/>
     </row>
     <row r="51" spans="2:11" ht="57">
-      <c r="B51" s="107" t="s">
+      <c r="B51" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="107" t="s">
+      <c r="C51" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="125" t="str">
         <f>'보안요구사항(Android)'!D51</f>
         <v>앱은 자체 인증서 저장소를 사용하거나 앤드 포인트 인증서 또는 공개 키를 고정한 다음 신뢰할 수 있는 CA에서 서명한 경우에도 다른 인증서 또는 키를 제공하는 앤드 포인트와의 연결을 설정하지 않아야 한다.</v>
       </c>
-      <c r="E51" s="113"/>
-      <c r="F51" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="111" t="s">
+      <c r="E51" s="92"/>
+      <c r="F51" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H51" s="115" t="str">
+      <c r="H51" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-3-and-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)")</f>
         <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)</v>
       </c>
-      <c r="I51" s="113"/>
-      <c r="J51" s="113"/>
-      <c r="K51" s="114"/>
+      <c r="I51" s="92"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="93"/>
     </row>
     <row r="52" spans="2:11" ht="57">
-      <c r="B52" s="107" t="s">
+      <c r="B52" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="107" t="s">
+      <c r="C52" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="154" t="str">
+      <c r="D52" s="125" t="str">
         <f>'보안요구사항(Android)'!D52</f>
         <v>앱은 등록 및 계정 복구와 같은 중요한 작업(이메일 또는 SMS)을 위해 하나의 안전하지 않은 단일 통신 채널에 의존하지 않아야 한다.</v>
       </c>
-      <c r="E52" s="113"/>
-      <c r="F52" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="111" t="s">
+      <c r="E52" s="92"/>
+      <c r="F52" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="115" t="str">
+      <c r="H52" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)")</f>
         <v>Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)</v>
       </c>
-      <c r="I52" s="113"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="114"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="92"/>
+      <c r="K52" s="93"/>
     </row>
     <row r="53" spans="2:11" ht="38">
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="107" t="s">
+      <c r="C53" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="154" t="str">
+      <c r="D53" s="125" t="str">
         <f>'보안요구사항(Android)'!D53</f>
         <v>앱은 최신 연결 라이브러리 및 보안 라이브러리에만 의존하여야 한다.</v>
       </c>
-      <c r="E53" s="113"/>
-      <c r="F53" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="111" t="s">
+      <c r="E53" s="92"/>
+      <c r="F53" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H53" s="115" t="str">
+      <c r="H53" s="94" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"), "Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
         <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
-      <c r="I53" s="113"/>
-      <c r="J53" s="113"/>
-      <c r="K53" s="114"/>
+      <c r="I53" s="92"/>
+      <c r="J53" s="92"/>
+      <c r="K53" s="93"/>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="117" t="s">
+      <c r="B54" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="117"/>
-      <c r="D54" s="105" t="str">
+      <c r="C54" s="96"/>
+      <c r="D54" s="84" t="str">
         <f>'보안요구사항(Android)'!D54</f>
         <v>플랫폼 상호 작용</v>
       </c>
-      <c r="E54" s="119"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="119"/>
-      <c r="J54" s="119"/>
-      <c r="K54" s="118"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="98"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="97"/>
     </row>
     <row r="55" spans="2:11" ht="38">
-      <c r="B55" s="107" t="s">
+      <c r="B55" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="107" t="s">
+      <c r="C55" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="154" t="str">
+      <c r="D55" s="125" t="str">
         <f>'보안요구사항(Android)'!D55</f>
         <v>앱은 필요한 최소한의 권한만 요구하여야 한다.</v>
       </c>
-      <c r="E55" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="111"/>
-      <c r="H55" s="115" t="str">
+      <c r="E55" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="90"/>
+      <c r="H55" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-app-permissions-mstg-platform-1"),"Testing App Permissions (MSTG-PLATFORM-1)")</f>
         <v>Testing App Permissions (MSTG-PLATFORM-1)</v>
       </c>
-      <c r="I55" s="113"/>
-      <c r="J55" s="113"/>
-      <c r="K55" s="114"/>
-    </row>
-    <row r="56" spans="2:11" ht="38">
-      <c r="B56" s="107" t="s">
+      <c r="I55" s="92"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="93"/>
+    </row>
+    <row r="56" spans="2:11" ht="54">
+      <c r="B56" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="107" t="s">
+      <c r="C56" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="154" t="str">
+      <c r="D56" s="125" t="str">
         <f>'보안요구사항(Android)'!D56</f>
         <v>외부 소스 및 사용자의 모든 입력에 대해 검증하고 필요한 경우 적절하게 처리하여야 한다. 여기에는 UI를 통해 수신된 데이터, 인텐트, 사용자 정의 URL 및 네트워크 소스와 같은 IPC 메커니즘이 포함됩니다.</v>
       </c>
-      <c r="E56" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="111"/>
-      <c r="H56" s="115" t="str">
+      <c r="E56" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="90"/>
+      <c r="H56" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),"Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I56" s="113"/>
-      <c r="J56" s="113"/>
-      <c r="K56" s="114"/>
+      <c r="I56" s="92"/>
+      <c r="J56" s="92"/>
+      <c r="K56" s="93"/>
     </row>
     <row r="57" spans="2:11" ht="38">
-      <c r="B57" s="107" t="s">
+      <c r="B57" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="107" t="s">
+      <c r="C57" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="154" t="str">
+      <c r="D57" s="125" t="str">
         <f>'보안요구사항(Android)'!D57</f>
         <v>앱은 메커니즘이 제대로 보호되지 않는 한 사용자 정의 URL 체계를 통해 민감한 기능을 내보내지 않아야 합니다.</v>
       </c>
-      <c r="E57" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="111"/>
-      <c r="H57" s="115" t="str">
+      <c r="E57" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="90"/>
+      <c r="H57" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-custom-url-schemes-mstg-platform-3"),"Testing Custom URL Schemes (MSTG-PLATFORM-3)")</f>
         <v>Testing Custom URL Schemes (MSTG-PLATFORM-3)</v>
       </c>
-      <c r="I57" s="113"/>
-      <c r="J57" s="113"/>
-      <c r="K57" s="114"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="93"/>
     </row>
     <row r="58" spans="2:11" ht="38">
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="107" t="s">
+      <c r="C58" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="154" t="str">
+      <c r="D58" s="125" t="str">
         <f>'보안요구사항(Android)'!D58</f>
         <v>엡은 메커니즘이 제대로 보호되지 않는 한 IPC 메터니즘을 통해 민감한 기능을 내보내지 않아야 합니다.</v>
       </c>
-      <c r="E58" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="111"/>
-      <c r="H58" s="112" t="str">
+      <c r="E58" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="90"/>
+      <c r="H58" s="91" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x06h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc-mstg-platform-4"), "Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)")</f>
         <v>Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)</v>
       </c>
-      <c r="I58" s="113"/>
-      <c r="J58" s="113"/>
-      <c r="K58" s="114"/>
+      <c r="I58" s="92"/>
+      <c r="J58" s="92"/>
+      <c r="K58" s="93"/>
     </row>
     <row r="59" spans="2:11" ht="38">
-      <c r="B59" s="107" t="s">
+      <c r="B59" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="107" t="s">
+      <c r="C59" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="154" t="str">
+      <c r="D59" s="125" t="str">
         <f>'보안요구사항(Android)'!D59</f>
         <v>명시적으로 필요한 경우가 아니면 웹뷰에서 자바스크립트를 사용하지 않아야 합니다.</v>
       </c>
-      <c r="E59" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="111"/>
-      <c r="H59" s="115" t="str">
+      <c r="E59" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="90"/>
+      <c r="H59" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-ios-webviews-mstg-platform-5"),"Testing iOS WebViews (MSTG-PLATFORM-5)")</f>
         <v>Testing iOS WebViews (MSTG-PLATFORM-5)</v>
       </c>
-      <c r="I59" s="113"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="114"/>
+      <c r="I59" s="92"/>
+      <c r="J59" s="92"/>
+      <c r="K59" s="93"/>
     </row>
     <row r="60" spans="2:11" ht="38">
-      <c r="B60" s="107" t="s">
+      <c r="B60" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="107" t="s">
+      <c r="C60" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="D60" s="154" t="str">
+      <c r="D60" s="125" t="str">
         <f>'보안요구사항(Android)'!D60</f>
         <v>웹뷰는 필요 최소한의 프로토콜 핸들러 세트만 허용하도록 구성되어야 합니다. (이상적으로는 https만 지원) file, tel 및 app-id와 같은 잠재적으로 위험한 핸들러는 비활성화하여야 합니다.</v>
       </c>
-      <c r="E60" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" s="111"/>
-      <c r="H60" s="115" t="str">
+      <c r="E60" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="90"/>
+      <c r="H60" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers-mstg-platform-6"),"Testing WebView Protocol Handlers (MSTG-PLATFORM-6)")</f>
         <v>Testing WebView Protocol Handlers (MSTG-PLATFORM-6)</v>
       </c>
-      <c r="I60" s="113"/>
-      <c r="J60" s="113"/>
-      <c r="K60" s="114"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="92"/>
+      <c r="K60" s="93"/>
     </row>
     <row r="61" spans="2:11" ht="57">
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="107" t="s">
+      <c r="C61" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="154" t="str">
+      <c r="D61" s="125" t="str">
         <f>'보안요구사항(Android)'!D61</f>
         <v>앱의 네이티브 메소드가 웹뷰에 노출되는 경우 웹뷰가 앱 패키지에 포함된 자바스크립트만 렌더링하여야 합니다.</v>
       </c>
-      <c r="E61" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" s="111"/>
-      <c r="H61" s="115" t="str">
+      <c r="E61" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="90"/>
+      <c r="H61" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews-mstg-platform-7"),"Determining Whether Native Methods Are Exposed Through WebViews (MSTG-PLATFORM-7)")</f>
         <v>Determining Whether Native Methods Are Exposed Through WebViews (MSTG-PLATFORM-7)</v>
       </c>
-      <c r="I61" s="113"/>
-      <c r="J61" s="113"/>
-      <c r="K61" s="114"/>
+      <c r="I61" s="92"/>
+      <c r="J61" s="92"/>
+      <c r="K61" s="93"/>
     </row>
     <row r="62" spans="2:11" ht="38">
-      <c r="B62" s="107" t="s">
+      <c r="B62" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="107" t="s">
+      <c r="C62" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="154" t="str">
+      <c r="D62" s="125" t="str">
         <f>'보안요구사항(Android)'!D62</f>
         <v>객체 직렬화 해제는 안전한 직렬화 API를 사용하여 구현하여야 합니다.</v>
       </c>
-      <c r="E62" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="111"/>
-      <c r="H62" s="115" t="str">
+      <c r="E62" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="90"/>
+      <c r="H62" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-object-persistence-mstg-platform-8"),"Testing Object Persistence (MSTG-PLATFORM-8)")</f>
         <v>Testing Object Persistence (MSTG-PLATFORM-8)</v>
       </c>
-      <c r="I62" s="113"/>
-      <c r="J62" s="113"/>
-      <c r="K62" s="114"/>
+      <c r="I62" s="92"/>
+      <c r="J62" s="92"/>
+      <c r="K62" s="93"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="117" t="s">
+      <c r="B63" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="117"/>
-      <c r="D63" s="105" t="str">
+      <c r="C63" s="96"/>
+      <c r="D63" s="84" t="str">
         <f>'보안요구사항(Android)'!D63</f>
         <v>코드 품질 및 빌드 설정</v>
       </c>
-      <c r="E63" s="119"/>
-      <c r="F63" s="120"/>
-      <c r="G63" s="119"/>
-      <c r="H63" s="119"/>
-      <c r="I63" s="119"/>
-      <c r="J63" s="119"/>
-      <c r="K63" s="118"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="98"/>
+      <c r="H63" s="98"/>
+      <c r="I63" s="98"/>
+      <c r="J63" s="98"/>
+      <c r="K63" s="97"/>
     </row>
     <row r="64" spans="2:11" ht="38">
-      <c r="B64" s="107" t="s">
+      <c r="B64" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="107" t="s">
+      <c r="C64" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="154" t="str">
+      <c r="D64" s="125" t="str">
         <f>'보안요구사항(Android)'!D64</f>
         <v>앱이 유효한 인증서로 서명 및 프로비저닝되어야 하며, 개인 키가 올바르게 보호되어야 합니다.</v>
       </c>
-      <c r="E64" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="111"/>
-      <c r="H64" s="115" t="str">
+      <c r="E64" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="90"/>
+      <c r="H64" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed-mstg-code-1"),"Making Sure that the App Is Properly Signed (MSTG-CODE-1)")</f>
         <v>Making Sure that the App Is Properly Signed (MSTG-CODE-1)</v>
       </c>
-      <c r="I64" s="113"/>
-      <c r="J64" s="113"/>
-      <c r="K64" s="114"/>
+      <c r="I64" s="92"/>
+      <c r="J64" s="92"/>
+      <c r="K64" s="93"/>
     </row>
     <row r="65" spans="2:11" ht="38">
-      <c r="B65" s="107" t="s">
+      <c r="B65" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="107" t="s">
+      <c r="C65" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="154" t="str">
+      <c r="D65" s="125" t="str">
         <f>'보안요구사항(Android)'!D65</f>
         <v>앱은 릴리 모드로 빌드되어 있어야 합니다. (디버그 불가)</v>
       </c>
-      <c r="E65" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="111"/>
-      <c r="H65" s="115" t="str">
+      <c r="E65" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="90"/>
+      <c r="H65" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable-mstg-code-2"),"Determining Whether the App is Debuggable (MSTG-CODE-2)")</f>
         <v>Determining Whether the App is Debuggable (MSTG-CODE-2)</v>
       </c>
-      <c r="I65" s="113"/>
-      <c r="J65" s="113"/>
-      <c r="K65" s="114"/>
+      <c r="I65" s="92"/>
+      <c r="J65" s="92"/>
+      <c r="K65" s="93"/>
     </row>
     <row r="66" spans="2:11" ht="38">
-      <c r="B66" s="107" t="s">
+      <c r="B66" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="107" t="s">
+      <c r="C66" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="154" t="str">
+      <c r="D66" s="125" t="str">
         <f>'보안요구사항(Android)'!D66</f>
         <v>네이티브 바이너리에서 디버그 기호가 제거되어야 합니다.</v>
       </c>
-      <c r="E66" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" s="111"/>
-      <c r="H66" s="115" t="str">
+      <c r="E66" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="90"/>
+      <c r="H66" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols-mstg-code-3"),"Finding Debugging Symbols (MSTG-CODE-3)")</f>
         <v>Finding Debugging Symbols (MSTG-CODE-3)</v>
       </c>
-      <c r="I66" s="113"/>
-      <c r="J66" s="113"/>
-      <c r="K66" s="114"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="92"/>
+      <c r="K66" s="93"/>
     </row>
     <row r="67" spans="2:11" ht="38">
-      <c r="B67" s="107" t="s">
+      <c r="B67" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="107" t="s">
+      <c r="C67" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="D67" s="154" t="str">
+      <c r="D67" s="125" t="str">
         <f>'보안요구사항(Android)'!D67</f>
         <v>디버그 코드가 제거되고 앱에서 자세한 오류나 디버깅 메시지를 기록하지 않아야 합니다.</v>
       </c>
-      <c r="E67" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="111"/>
-      <c r="H67" s="115" t="str">
+      <c r="E67" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="90"/>
+      <c r="H67" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging-mstg-code-4"),"Finding Debugging Code and Verbose Error Logging (MSTG-CODE-4)")</f>
         <v>Finding Debugging Code and Verbose Error Logging (MSTG-CODE-4)</v>
       </c>
-      <c r="I67" s="113"/>
-      <c r="J67" s="113"/>
-      <c r="K67" s="114"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="93"/>
     </row>
     <row r="68" spans="2:11" ht="38">
-      <c r="B68" s="107" t="s">
+      <c r="B68" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="107" t="s">
+      <c r="C68" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="154" t="str">
+      <c r="D68" s="125" t="str">
         <f>'보안요구사항(Android)'!D68</f>
         <v>앱에서 사용되는 라이브러리 및 프레임워크 등은 모든 타사 구성 요소를 식별하고 알려진 취약점이 있는지 확인하여야 합니다.</v>
       </c>
-      <c r="E68" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" s="111"/>
-      <c r="H68" s="112" t="str">
+      <c r="E68" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="90"/>
+      <c r="H68" s="91" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),"Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
         <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
-      <c r="I68" s="113"/>
-      <c r="J68" s="113"/>
-      <c r="K68" s="114"/>
+      <c r="I68" s="92"/>
+      <c r="J68" s="92"/>
+      <c r="K68" s="93"/>
     </row>
     <row r="69" spans="2:11" ht="35" customHeight="1">
-      <c r="B69" s="107" t="s">
+      <c r="B69" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="107" t="s">
+      <c r="C69" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="154" t="str">
+      <c r="D69" s="125" t="str">
         <f>'보안요구사항(Android)'!D69</f>
         <v>앱은 가능한 모든 예외를 포착하고 처리하여야 합니다.</v>
       </c>
-      <c r="E69" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" s="111"/>
-      <c r="H69" s="115" t="str">
+      <c r="E69" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="90"/>
+      <c r="H69" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6"),"Testing Exception Handling (MSTG-CODE-6)")</f>
         <v>Testing Exception Handling (MSTG-CODE-6)</v>
       </c>
-      <c r="I69" s="113"/>
-      <c r="J69" s="113"/>
-      <c r="K69" s="114"/>
+      <c r="I69" s="92"/>
+      <c r="J69" s="92"/>
+      <c r="K69" s="93"/>
     </row>
     <row r="70" spans="2:11" ht="38" customHeight="1">
-      <c r="B70" s="107" t="s">
+      <c r="B70" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="107" t="s">
+      <c r="C70" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="154" t="str">
+      <c r="D70" s="125" t="str">
         <f>'보안요구사항(Android)'!D70</f>
         <v>보안 제어의 오류 처리 로직은 기본적으로 액세스를 거부하여야 합니다.</v>
       </c>
-      <c r="E70" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="111"/>
-      <c r="H70" s="115" t="str">
+      <c r="E70" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="90"/>
+      <c r="H70" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6"),"Testing Exception Handling (MSTG-CODE-6)")</f>
         <v>Testing Exception Handling (MSTG-CODE-6)</v>
       </c>
-      <c r="I70" s="113"/>
-      <c r="J70" s="113"/>
-      <c r="K70" s="114"/>
+      <c r="I70" s="92"/>
+      <c r="J70" s="92"/>
+      <c r="K70" s="93"/>
     </row>
     <row r="71" spans="2:11" ht="19">
-      <c r="B71" s="107" t="s">
+      <c r="B71" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="107" t="s">
+      <c r="C71" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="154" t="str">
+      <c r="D71" s="125" t="str">
         <f>'보안요구사항(Android)'!D71</f>
         <v>관리되지 않는 코드에서 메모리는 할당, 해제 및 안전하게 사용되어야 합니다.</v>
       </c>
-      <c r="E71" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="111"/>
-      <c r="H71" s="115" t="str">
+      <c r="E71" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="90"/>
+      <c r="H71" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs-mstg-code-8"),"Memory Corruption Bugs (MSTG-CODE-8)")</f>
         <v>Memory Corruption Bugs (MSTG-CODE-8)</v>
       </c>
-      <c r="I71" s="113"/>
-      <c r="J71" s="113"/>
-      <c r="K71" s="114"/>
+      <c r="I71" s="92"/>
+      <c r="J71" s="92"/>
+      <c r="K71" s="93"/>
     </row>
     <row r="72" spans="2:11" ht="38">
-      <c r="B72" s="107" t="s">
+      <c r="B72" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="107" t="s">
+      <c r="C72" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="D72" s="154" t="str">
+      <c r="D72" s="125" t="str">
         <f>'보안요구사항(Android)'!D72</f>
         <v>바이트 코드의 경량화, 스택 보호, PIE 지원 및 자동 참조 카운팅과 같은 툴체인에서 제공하는 무료 보안 기능이 활성화되어야 합니다.</v>
       </c>
-      <c r="E72" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="111"/>
-      <c r="H72" s="115" t="str">
+      <c r="E72" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="90"/>
+      <c r="H72" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated-mstg-code-9"),"Make Sure That Free Security Features Are Activated (MSTG-CODE-9)")</f>
         <v>Make Sure That Free Security Features Are Activated (MSTG-CODE-9)</v>
       </c>
-      <c r="I72" s="113"/>
-      <c r="J72" s="113"/>
-      <c r="K72" s="114"/>
+      <c r="I72" s="92"/>
+      <c r="J72" s="92"/>
+      <c r="K72" s="93"/>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" s="66"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="69"/>
-      <c r="G73" s="69"/>
-      <c r="H73" s="69"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="90"/>
-      <c r="K73" s="126"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="71"/>
+      <c r="K73" s="105"/>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="127"/>
-      <c r="C74" s="127"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="97"/>
-      <c r="F74" s="97"/>
-      <c r="G74" s="97"/>
-      <c r="H74" s="97"/>
-      <c r="I74" s="97"/>
-      <c r="J74" s="97"/>
-      <c r="K74" s="75"/>
+      <c r="B74" s="106"/>
+      <c r="C74" s="106"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="77"/>
+      <c r="H74" s="77"/>
+      <c r="I74" s="77"/>
+      <c r="J74" s="77"/>
+      <c r="K74" s="56"/>
     </row>
     <row r="75" spans="2:11">
-      <c r="B75" s="127"/>
-      <c r="C75" s="127"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="97"/>
-      <c r="F75" s="97"/>
-      <c r="G75" s="97"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="97"/>
-      <c r="J75" s="97"/>
-      <c r="K75" s="75"/>
+      <c r="B75" s="106"/>
+      <c r="C75" s="106"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="77"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="77"/>
+      <c r="J75" s="77"/>
+      <c r="K75" s="56"/>
     </row>
     <row r="76" spans="2:11">
-      <c r="B76" s="127"/>
-      <c r="C76" s="127"/>
-      <c r="D76" s="75"/>
-      <c r="E76" s="97"/>
-      <c r="F76" s="97"/>
-      <c r="G76" s="97"/>
-      <c r="H76" s="97"/>
-      <c r="I76" s="97"/>
-      <c r="J76" s="97"/>
-      <c r="K76" s="75"/>
+      <c r="B76" s="106"/>
+      <c r="C76" s="106"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="77"/>
+      <c r="H76" s="77"/>
+      <c r="I76" s="77"/>
+      <c r="J76" s="77"/>
+      <c r="K76" s="56"/>
     </row>
     <row r="77" spans="2:11">
-      <c r="B77" s="98" t="s">
-        <v>280</v>
-      </c>
-      <c r="C77" s="99"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="97"/>
-      <c r="F77" s="97"/>
-      <c r="G77" s="97"/>
-      <c r="H77" s="97"/>
-      <c r="I77" s="97"/>
-      <c r="J77" s="97"/>
-      <c r="K77" s="75"/>
+      <c r="B77" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="C77" s="79"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="77"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="56"/>
     </row>
     <row r="78" spans="2:11">
-      <c r="B78" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="C78" s="85"/>
-      <c r="D78" s="86" t="s">
-        <v>282</v>
-      </c>
-      <c r="E78" s="97"/>
-      <c r="F78" s="97"/>
-      <c r="G78" s="97"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="97"/>
-      <c r="J78" s="97"/>
-      <c r="K78" s="75"/>
+      <c r="B78" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="C78" s="66"/>
+      <c r="D78" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="77"/>
+      <c r="H78" s="77"/>
+      <c r="I78" s="77"/>
+      <c r="J78" s="77"/>
+      <c r="K78" s="56"/>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="87" t="s">
+      <c r="B79" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="C79" s="82"/>
-      <c r="D79" s="83" t="str">
+      <c r="C79" s="63"/>
+      <c r="D79" s="64" t="str">
         <f>'보안요구사항(Android)'!D79</f>
         <v>요구사항이 모바일 앱에 적용되며 모범 사례에 따라 구현되어 있는 경우</v>
       </c>
-      <c r="E79" s="97"/>
-      <c r="F79" s="97"/>
-      <c r="G79" s="97"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="97"/>
-      <c r="J79" s="97"/>
-      <c r="K79" s="75"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="77"/>
+      <c r="H79" s="77"/>
+      <c r="I79" s="77"/>
+      <c r="J79" s="77"/>
+      <c r="K79" s="56"/>
     </row>
     <row r="80" spans="2:11">
-      <c r="B80" s="87" t="s">
+      <c r="B80" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="C80" s="82"/>
-      <c r="D80" s="83" t="str">
+      <c r="C80" s="63"/>
+      <c r="D80" s="64" t="str">
         <f>'보안요구사항(Android)'!D80</f>
         <v>요구사항이 모바일 앱에는 적용되지만 모든 요구사항을 충족하지 못하는 경우</v>
       </c>
-      <c r="E80" s="97"/>
-      <c r="F80" s="97"/>
-      <c r="G80" s="97"/>
-      <c r="H80" s="97"/>
-      <c r="I80" s="97"/>
-      <c r="J80" s="97"/>
-      <c r="K80" s="75"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="77"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="77"/>
+      <c r="J80" s="77"/>
+      <c r="K80" s="56"/>
     </row>
     <row r="81" spans="2:11">
-      <c r="B81" s="87" t="s">
+      <c r="B81" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C81" s="82"/>
-      <c r="D81" s="83" t="str">
+      <c r="C81" s="63"/>
+      <c r="D81" s="64" t="str">
         <f>'보안요구사항(Android)'!D81</f>
         <v>요구사항이 모바일 앱에 해당 사항이 없는 경우</v>
       </c>
-      <c r="E81" s="97"/>
-      <c r="F81" s="97"/>
-      <c r="G81" s="97"/>
-      <c r="H81" s="97"/>
-      <c r="I81" s="97"/>
-      <c r="J81" s="97"/>
-      <c r="K81" s="75"/>
+      <c r="E81" s="77"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="77"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="77"/>
+      <c r="J81" s="77"/>
+      <c r="K81" s="56"/>
     </row>
     <row r="82" spans="2:11">
-      <c r="B82" s="127"/>
-      <c r="C82" s="127"/>
-      <c r="D82" s="75"/>
-      <c r="E82" s="97"/>
-      <c r="F82" s="97"/>
-      <c r="G82" s="97"/>
-      <c r="H82" s="97"/>
-      <c r="I82" s="97"/>
-      <c r="J82" s="97"/>
-      <c r="K82" s="75"/>
+      <c r="B82" s="106"/>
+      <c r="C82" s="106"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="56"/>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" s="127"/>
-      <c r="C83" s="127"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="97"/>
-      <c r="F83" s="97"/>
-      <c r="G83" s="97"/>
-      <c r="H83" s="97"/>
-      <c r="I83" s="97"/>
-      <c r="J83" s="97"/>
-      <c r="K83" s="75"/>
+      <c r="B83" s="106"/>
+      <c r="C83" s="106"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="77"/>
+      <c r="I83" s="77"/>
+      <c r="J83" s="77"/>
+      <c r="K83" s="56"/>
     </row>
     <row r="84" spans="2:11">
-      <c r="B84" s="127"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="75"/>
-      <c r="E84" s="97"/>
-      <c r="F84" s="97"/>
-      <c r="G84" s="97"/>
-      <c r="H84" s="97"/>
-      <c r="I84" s="97"/>
-      <c r="J84" s="97"/>
-      <c r="K84" s="75"/>
+      <c r="B84" s="106"/>
+      <c r="C84" s="106"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="77"/>
+      <c r="H84" s="77"/>
+      <c r="I84" s="77"/>
+      <c r="J84" s="77"/>
+      <c r="K84" s="56"/>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85" s="127"/>
-      <c r="C85" s="127"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="97"/>
-      <c r="F85" s="97"/>
-      <c r="G85" s="97"/>
-      <c r="H85" s="97"/>
-      <c r="I85" s="97"/>
-      <c r="J85" s="97"/>
-      <c r="K85" s="75"/>
+      <c r="B85" s="106"/>
+      <c r="C85" s="106"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="77"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10613,506 +10588,506 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="89" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="156" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="156" customWidth="1"/>
-    <col min="4" max="4" width="80.83203125" style="88" customWidth="1"/>
-    <col min="5" max="6" width="8.33203125" style="89" customWidth="1"/>
-    <col min="7" max="7" width="40.83203125" style="89" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="88" customWidth="1"/>
-    <col min="9" max="1025" width="11" style="89" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="89"/>
+    <col min="1" max="1" width="1.83203125" style="70" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="126" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="126" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" style="69" customWidth="1"/>
+    <col min="5" max="6" width="8.33203125" style="70" customWidth="1"/>
+    <col min="7" max="7" width="40.83203125" style="70" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" style="69" customWidth="1"/>
+    <col min="9" max="1025" width="11" style="70" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="70"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="20">
-      <c r="B1" s="155" t="s">
-        <v>298</v>
-      </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
+      <c r="B1" s="156" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="G2" s="157"/>
-      <c r="H2" s="65"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="102" t="s">
-        <v>294</v>
-      </c>
-      <c r="E3" s="102" t="s">
-        <v>288</v>
-      </c>
-      <c r="F3" s="102" t="s">
-        <v>284</v>
-      </c>
-      <c r="G3" s="102" t="s">
+      <c r="D3" s="82" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>283</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="96" t="s">
         <v>286</v>
       </c>
-      <c r="H3" s="102" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="117" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118" t="str">
+      <c r="C4" s="96"/>
+      <c r="D4" s="97" t="str">
         <f>'안티리버싱(Android)'!D4</f>
         <v>동적 분석 및 변조 방지</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="118"/>
-    </row>
-    <row r="5" spans="2:8" ht="36">
-      <c r="B5" s="107" t="s">
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="97"/>
+    </row>
+    <row r="5" spans="2:8" ht="19">
+      <c r="B5" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="160" t="str">
+      <c r="D5" s="130" t="str">
         <f>'안티리버싱(Android)'!D5</f>
         <v>앱은 사용자에게 경고하거나 앱을 종료하여 루팅 또는 탈옥 된 기기의 존재를 감지하여야 한다.</v>
       </c>
-      <c r="E5" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="111" t="s">
+      <c r="E5" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="115" t="str">
+      <c r="G5" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection-mstg-resilience-1"),"Jailbreak Detection (MSTG-RESILIENCE-1)")</f>
         <v>Jailbreak Detection (MSTG-RESILIENCE-1)</v>
       </c>
-      <c r="H5" s="114"/>
+      <c r="H5" s="93"/>
     </row>
     <row r="6" spans="2:8" ht="38">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="160" t="str">
+      <c r="D6" s="130" t="str">
         <f>'안티리버싱(Android)'!D6</f>
         <v>앱은 디버깅을 방지하거나 디버거 연결을 감지하여야 한다. 사용 가능한 모든 디버깅 프로토콜이 포함되어야한다.</v>
       </c>
-      <c r="E6" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="111" t="s">
+      <c r="E6" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="115" t="str">
+      <c r="G6" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks-mstg-resilience-2"),"Anti-Debugging Checks (MSTG-RESILIENCE-2)")</f>
         <v>Anti-Debugging Checks (MSTG-RESILIENCE-2)</v>
       </c>
-      <c r="H6" s="114"/>
+      <c r="H6" s="93"/>
     </row>
     <row r="7" spans="2:8" ht="38">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="160" t="str">
+      <c r="D7" s="130" t="str">
         <f>'안티리버싱(Android)'!D7</f>
         <v>앱은 자체 샌드박스에서 실행 파일 및 중요한 데이터의 변조를 감지하여야 한다.</v>
       </c>
-      <c r="E7" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="111" t="s">
+      <c r="E7" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="115" t="str">
+      <c r="G7" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11"),"File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)")</f>
         <v>File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)</v>
       </c>
-      <c r="H7" s="114"/>
-    </row>
-    <row r="8" spans="2:8" ht="36">
-      <c r="B8" s="107" t="s">
+      <c r="H7" s="93"/>
+    </row>
+    <row r="8" spans="2:8" ht="19">
+      <c r="B8" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="160" t="str">
+      <c r="D8" s="130" t="str">
         <f>'안티리버싱(Android)'!D8</f>
         <v>앱은 장치에 널리 사용되는 리버스 엔지니어링 도구 및 프레임워크의 존재를 감지하여야 한다.</v>
       </c>
-      <c r="E8" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="111" t="s">
+      <c r="E8" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="161" t="s">
+      <c r="G8" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="H8" s="114"/>
+      <c r="H8" s="93"/>
     </row>
     <row r="9" spans="2:8" ht="19">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="160" t="str">
+      <c r="D9" s="130" t="str">
         <f>'안티리버싱(Android)'!D9</f>
         <v>앱은 어떤 방법을 사용하여 에뮬레이터에서 실행되고 있는 여부를 감지하여야 한다.</v>
       </c>
-      <c r="E9" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="111" t="s">
+      <c r="E9" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="161" t="s">
+      <c r="G9" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="H9" s="114"/>
+      <c r="H9" s="93"/>
     </row>
     <row r="10" spans="2:8" ht="19">
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="160" t="str">
+      <c r="D10" s="130" t="str">
         <f>'안티리버싱(Android)'!D10</f>
         <v>앱은 자체 메모리 공간에서 코드와 데이터 변조를 감지하여야 한다.</v>
       </c>
-      <c r="E10" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="111" t="s">
+      <c r="E10" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="161" t="s">
+      <c r="G10" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="H10" s="114"/>
+      <c r="H10" s="93"/>
     </row>
     <row r="11" spans="2:8" ht="36">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="160" t="str">
+      <c r="D11" s="130" t="str">
         <f>'안티리버싱(Android)'!D11</f>
         <v>앱은 각 방어 유형(8.1~8.6)에서 여러 메커니즘을 구현하여야 한다. 복원력은 사용된 메커니즘의 독창성의 양 및 다양성과 비례합니다.</v>
       </c>
-      <c r="E11" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="111" t="s">
+      <c r="E11" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="135" t="s">
+      <c r="G11" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="H11" s="114"/>
+      <c r="H11" s="93"/>
     </row>
     <row r="12" spans="2:8" ht="19">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="160" t="str">
+      <c r="D12" s="130" t="str">
         <f>'안티리버싱(Android)'!D12</f>
         <v>감지 메커니즘은 지연 응답과 스텔스 응답을 포함하여 다양한 종류 응답을 트리거하여야 한다.</v>
       </c>
-      <c r="E12" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="111" t="s">
+      <c r="E12" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="135" t="s">
+      <c r="G12" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="H12" s="114"/>
+      <c r="H12" s="93"/>
     </row>
     <row r="13" spans="2:8" ht="19">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="160" t="str">
+      <c r="D13" s="130" t="str">
         <f>'안티리버싱(Android)'!D13</f>
         <v>프로그램 난독화가 적용되고, 동적 분석을 통한 역 난독처리를 방해하여야 한다.</v>
       </c>
-      <c r="E13" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="111" t="s">
+      <c r="E13" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="161" t="s">
+      <c r="G13" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="H13" s="114"/>
+      <c r="H13" s="93"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="117" t="s">
-        <v>292</v>
-      </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="118" t="str">
+      <c r="B14" s="96" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97" t="str">
         <f>'안티리버싱(Android)'!D14</f>
         <v>장치 바인딩</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="118"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="97"/>
     </row>
     <row r="15" spans="2:8" ht="39" customHeight="1">
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="160" t="str">
+      <c r="D15" s="130" t="str">
         <f>'안티리버싱(Android)'!D15</f>
         <v>앱은 장치 고유의 여러 속성에서 파생되는 장치 지문을 사용하여 '장치 바인딩' 기능을 구현하여야 한다.</v>
       </c>
-      <c r="E15" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="111" t="s">
+      <c r="E15" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="115" t="str">
+      <c r="G15" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding-mstg-resilience-10"),"Device Binding (MSTG-RESILIENCE-10)")</f>
         <v>Device Binding (MSTG-RESILIENCE-10)</v>
       </c>
-      <c r="H15" s="114"/>
+      <c r="H15" s="93"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="117" t="s">
-        <v>293</v>
-      </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="118" t="str">
+      <c r="B16" s="96" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="96"/>
+      <c r="D16" s="97" t="str">
         <f>'안티리버싱(Android)'!D16</f>
         <v>이해 방해(Impede Comprehension)</v>
       </c>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="118"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="97"/>
     </row>
     <row r="17" spans="2:8" ht="54">
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="160" t="str">
+      <c r="D17" s="130" t="str">
         <f>'안티리버싱(Android)'!D17</f>
         <v>앱에 속하는 모든 실행 파일 및 라이브러리는 파일 수준에서 암호화되거나 실행 파일 내의 중요한 코드 및 데이터 세그먼트가 암호화되거나 압축되어야 한다. 간단한 정적 분석은 중요한 코드나 데이터가 노출되지 않아야 한다.</v>
       </c>
-      <c r="E17" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="111" t="s">
+      <c r="E17" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="112" t="str">
+      <c r="G17" s="91" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11"),"File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)")</f>
         <v>File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)</v>
       </c>
-      <c r="H17" s="114"/>
+      <c r="H17" s="93"/>
     </row>
     <row r="18" spans="2:8" ht="72">
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="160" t="str">
+      <c r="D18" s="130" t="str">
         <f>'안티리버싱(Android)'!D18</f>
         <v>난독화의 목표가 민감한 계산을 보호하는 것이라면, 현재 공개된 연구를 고려하여 특정 작업에 적합하고 수동 및 자동화된 역 난독화 방법에 대해 강력한 난독화 체계가 사용되어야 한다. 난독화의 효과는 수동 테스트를 통해 검할 필요가 있다. 하드웨어 기반 격리 기능이 난독화 처리보다 우선시 됩니다.</v>
       </c>
-      <c r="E18" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="111" t="s">
+      <c r="E18" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="135" t="s">
+      <c r="G18" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="H18" s="114"/>
+      <c r="H18" s="93"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="71"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="52"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="65"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="46"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="158"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="65"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="98" t="s">
-        <v>280</v>
-      </c>
-      <c r="C22" s="159"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="65"/>
+      <c r="B22" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="129"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="86" t="s">
-        <v>282</v>
-      </c>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="65"/>
+      <c r="B23" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="83" t="str">
+      <c r="C24" s="55"/>
+      <c r="D24" s="64" t="str">
         <f>'보안요구사항(Android)'!D79</f>
         <v>요구사항이 모바일 앱에 적용되며 모범 사례에 따라 구현되어 있는 경우</v>
       </c>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="65"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="83" t="str">
+      <c r="C25" s="55"/>
+      <c r="D25" s="64" t="str">
         <f>'보안요구사항(Android)'!D80</f>
         <v>요구사항이 모바일 앱에는 적용되지만 모든 요구사항을 충족하지 못하는 경우</v>
       </c>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="65"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="83" t="str">
+      <c r="C26" s="55"/>
+      <c r="D26" s="64" t="str">
         <f>'보안요구사항(Android)'!D81</f>
         <v>요구사항이 모바일 앱에 해당 사항이 없는 경우</v>
       </c>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="65"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="65"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="65"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="158"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="65"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="158"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="158"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11171,82 +11146,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0C8DA6-9952-E446-AA11-F4BD3A4D6EA4}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="119.6640625" customWidth="1"/>
-    <col min="6" max="1025" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18">
-      <c r="A1" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="18">
-      <c r="A2" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="C3" s="42">
-        <v>36895</v>
-      </c>
-      <c r="D3" s="49">
-        <v>43761</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>299</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A27" sqref="A27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -11260,10 +11164,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="157"/>
       <c r="C1" s="9"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -11667,6 +11571,77 @@
       </c>
       <c r="E26" s="19" t="s">
         <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0C8DA6-9952-E446-AA11-F4BD3A4D6EA4}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="119.6640625" customWidth="1"/>
+    <col min="6" max="1025" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="157"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="38">
+      <c r="A3" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3" s="44">
+        <v>43770</v>
+      </c>
+      <c r="E3" s="133" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
